--- a/static/Models/Classification/Equation/Infrastructure.xlsx
+++ b/static/Models/Classification/Equation/Infrastructure.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>6.296744346618652</v>
+        <v>6.156713485717773</v>
       </c>
       <c r="C2">
-        <v>2.803878307342529</v>
+        <v>3.073906421661377</v>
       </c>
       <c r="D2">
-        <v>-5.077326774597168</v>
+        <v>-5.822100162506104</v>
       </c>
       <c r="E2">
-        <v>5.563036918640137</v>
+        <v>5.538885116577148</v>
       </c>
       <c r="F2">
-        <v>0.904487133026123</v>
+        <v>1.45960259437561</v>
       </c>
       <c r="G2">
-        <v>6.859116554260254</v>
+        <v>7.863642692565918</v>
       </c>
       <c r="H2">
-        <v>-0.1475319117307663</v>
+        <v>0.2746722102165222</v>
       </c>
       <c r="I2">
-        <v>0.8575804233551025</v>
+        <v>0.691900908946991</v>
       </c>
       <c r="J2">
-        <v>-0.4181778132915497</v>
+        <v>-0.4498908817768097</v>
       </c>
       <c r="K2">
-        <v>-0.6262742877006531</v>
+        <v>-1.394299507141113</v>
       </c>
       <c r="L2">
-        <v>1.314422965049744</v>
+        <v>1.701691627502441</v>
       </c>
       <c r="M2">
-        <v>0.460977166891098</v>
+        <v>0.9980680346488953</v>
       </c>
       <c r="N2">
-        <v>-0.4963158965110779</v>
+        <v>-0.8107068538665771</v>
       </c>
       <c r="O2">
-        <v>9.931766510009766</v>
+        <v>9.985777854919434</v>
       </c>
       <c r="P2">
-        <v>3.137945413589478</v>
+        <v>2.292129278182983</v>
       </c>
       <c r="Q2">
-        <v>-11.45813941955566</v>
+        <v>-11.22476577758789</v>
       </c>
       <c r="R2">
-        <v>-0.5850130915641785</v>
+        <v>-0.3584094941616058</v>
       </c>
       <c r="S2">
-        <v>-1.683044195175171</v>
+        <v>-2.310913324356079</v>
       </c>
       <c r="T2">
-        <v>4.121708393096924</v>
+        <v>4.056509017944336</v>
       </c>
       <c r="U2">
-        <v>-3.065439462661743</v>
+        <v>-2.574358701705933</v>
       </c>
       <c r="V2">
-        <v>0.5869684219360352</v>
+        <v>0.2421697676181793</v>
       </c>
       <c r="W2">
-        <v>-0.9481518864631653</v>
+        <v>-1.087593674659729</v>
       </c>
       <c r="X2">
-        <v>0.7355247139930725</v>
+        <v>1.028477311134338</v>
       </c>
       <c r="Y2">
-        <v>3.498497009277344</v>
+        <v>3.463849544525146</v>
       </c>
       <c r="Z2">
-        <v>10.56137371063232</v>
+        <v>9.712985992431641</v>
       </c>
       <c r="AA2">
-        <v>0.6456983089447021</v>
+        <v>0.7809135317802429</v>
       </c>
       <c r="AB2">
-        <v>-1.758940696716309</v>
+        <v>-1.77016270160675</v>
       </c>
       <c r="AC2">
-        <v>6.11093807220459</v>
+        <v>6.307198047637939</v>
       </c>
       <c r="AD2">
-        <v>0.3336604237556458</v>
+        <v>0.2762482762336731</v>
       </c>
       <c r="AE2">
-        <v>-1.449756622314453</v>
+        <v>-1.356676936149597</v>
       </c>
       <c r="AF2">
-        <v>1.493404030799866</v>
+        <v>2.223194599151611</v>
       </c>
       <c r="AG2">
-        <v>-1.700129270553589</v>
+        <v>-1.381450295448303</v>
       </c>
       <c r="AH2">
-        <v>-6.284055233001709</v>
+        <v>-6.42076301574707</v>
       </c>
       <c r="AI2">
-        <v>-4.412322044372559</v>
+        <v>-5.145747661590576</v>
       </c>
       <c r="AJ2">
-        <v>1.461126446723938</v>
+        <v>1.195855140686035</v>
       </c>
       <c r="AK2">
-        <v>-0.1173834428191185</v>
+        <v>-0.1988894492387772</v>
       </c>
       <c r="AL2">
-        <v>-0.8500937223434448</v>
+        <v>-0.3588036894798279</v>
       </c>
       <c r="AM2">
-        <v>2.597385406494141</v>
+        <v>2.050620079040527</v>
       </c>
       <c r="AN2">
-        <v>3.841761589050293</v>
+        <v>3.892842054367065</v>
       </c>
       <c r="AO2">
-        <v>1.748904347419739</v>
+        <v>1.313273429870605</v>
       </c>
       <c r="AP2">
-        <v>-0.2394888401031494</v>
+        <v>-0.4838225841522217</v>
       </c>
       <c r="AQ2">
-        <v>0.223410353064537</v>
+        <v>0.01793662831187248</v>
       </c>
       <c r="AR2">
-        <v>0.2801744043827057</v>
+        <v>0.3170126378536224</v>
       </c>
       <c r="AS2">
-        <v>-0.4546522200107574</v>
+        <v>-0.4518328011035919</v>
       </c>
       <c r="AT2">
-        <v>-3.854782342910767</v>
+        <v>-4.524995803833008</v>
       </c>
       <c r="AU2">
-        <v>-18.5082836151123</v>
+        <v>-18.3903923034668</v>
       </c>
       <c r="AV2">
-        <v>-1.356024265289307</v>
+        <v>-1.660230398178101</v>
       </c>
       <c r="AW2">
-        <v>-3.312271356582642</v>
+        <v>-3.28804087638855</v>
       </c>
       <c r="AX2">
-        <v>-0.09617459028959274</v>
+        <v>0.1345884501934052</v>
       </c>
       <c r="AY2">
-        <v>4.381102561950684</v>
+        <v>4.557973861694336</v>
       </c>
       <c r="AZ2">
-        <v>5.552569389343262</v>
+        <v>5.175736427307129</v>
       </c>
       <c r="BA2">
-        <v>7.965419769287109</v>
+        <v>7.183233261108398</v>
       </c>
       <c r="BB2">
-        <v>1.801102519035339</v>
+        <v>1.705897808074951</v>
       </c>
       <c r="BC2">
-        <v>0.044712845236063</v>
+        <v>0.510796844959259</v>
       </c>
       <c r="BD2">
-        <v>-0.1277168393135071</v>
+        <v>-0.04049800708889961</v>
       </c>
       <c r="BE2">
-        <v>1.329128980636597</v>
+        <v>1.666920900344849</v>
       </c>
       <c r="BF2">
-        <v>8.088508605957031</v>
+        <v>8.339921951293945</v>
       </c>
       <c r="BG2">
-        <v>-1.865875482559204</v>
+        <v>-2.006819725036621</v>
       </c>
       <c r="BH2">
-        <v>-0.6111329793930054</v>
+        <v>-0.4315034449100494</v>
       </c>
       <c r="BI2">
-        <v>8.548434257507324</v>
+        <v>8.738234519958496</v>
       </c>
       <c r="BJ2">
-        <v>-1.168845057487488</v>
+        <v>-0.7341877222061157</v>
       </c>
       <c r="BK2">
-        <v>1.62762451171875</v>
+        <v>1.945666670799255</v>
       </c>
       <c r="BL2">
-        <v>8.585527420043945</v>
+        <v>8.566970825195312</v>
       </c>
       <c r="BM2">
-        <v>-4.741498470306396</v>
+        <v>-5.289558410644531</v>
       </c>
       <c r="BN2">
-        <v>-23.31873893737793</v>
+        <v>-23.74868583679199</v>
       </c>
       <c r="BO2">
-        <v>-0.08436162769794464</v>
+        <v>0.07780611515045166</v>
       </c>
       <c r="BP2">
-        <v>5.516029357910156</v>
+        <v>5.315564632415771</v>
       </c>
       <c r="BQ2">
-        <v>0.2671502232551575</v>
+        <v>0.288875013589859</v>
       </c>
       <c r="BR2">
-        <v>-1.595978140830994</v>
+        <v>-0.9775876998901367</v>
       </c>
       <c r="BS2">
-        <v>-1.378696918487549</v>
+        <v>-1.224605321884155</v>
       </c>
       <c r="BT2">
-        <v>2.23843789100647</v>
+        <v>2.568878650665283</v>
       </c>
       <c r="BU2">
-        <v>-0.3056145310401917</v>
+        <v>-0.2423595041036606</v>
       </c>
       <c r="BV2">
-        <v>-0.686230480670929</v>
+        <v>-0.0825996920466423</v>
       </c>
       <c r="BW2">
-        <v>-0.3604559004306793</v>
+        <v>-0.5009462833404541</v>
       </c>
       <c r="BX2">
-        <v>-1.904624581336975</v>
+        <v>-2.0252685546875</v>
       </c>
       <c r="BY2">
-        <v>-1.498228549957275</v>
+        <v>-2.337741851806641</v>
       </c>
       <c r="BZ2">
-        <v>-3.161370754241943</v>
+        <v>-3.18951940536499</v>
       </c>
       <c r="CA2">
-        <v>-2.561531782150269</v>
+        <v>-2.454549312591553</v>
       </c>
       <c r="CB2">
-        <v>-5.516634941101074</v>
+        <v>-5.527569770812988</v>
       </c>
       <c r="CC2">
-        <v>-0.8391206860542297</v>
+        <v>-1.024604558944702</v>
       </c>
       <c r="CD2">
-        <v>0.4935213327407837</v>
+        <v>-0.05426053330302238</v>
       </c>
       <c r="CE2">
-        <v>2.114176034927368</v>
+        <v>1.609202980995178</v>
       </c>
       <c r="CF2">
-        <v>1.433537125587463</v>
+        <v>1.172824025154114</v>
       </c>
       <c r="CG2">
-        <v>1.417727947235107</v>
+        <v>1.842453956604004</v>
       </c>
       <c r="CH2">
-        <v>-1.470642924308777</v>
+        <v>-1.812004566192627</v>
       </c>
       <c r="CI2">
-        <v>-1.578863143920898</v>
+        <v>-1.588085412979126</v>
       </c>
       <c r="CJ2">
-        <v>3.681241750717163</v>
+        <v>4.170282363891602</v>
       </c>
       <c r="CK2">
-        <v>-1.312784314155579</v>
+        <v>-1.495928764343262</v>
       </c>
       <c r="CL2">
-        <v>0.3503820598125458</v>
+        <v>0.2870286405086517</v>
       </c>
       <c r="CM2">
-        <v>7.219788551330566</v>
+        <v>6.876461505889893</v>
       </c>
       <c r="CN2">
-        <v>1.26221239566803</v>
+        <v>0.9682965278625488</v>
       </c>
       <c r="CO2">
-        <v>0.5412046909332275</v>
+        <v>0.4738715887069702</v>
       </c>
       <c r="CP2">
-        <v>4.251533508300781</v>
+        <v>4.995681762695312</v>
       </c>
       <c r="CQ2">
-        <v>0.4434853494167328</v>
+        <v>0.4647729992866516</v>
       </c>
       <c r="CR2">
-        <v>-1.696090579032898</v>
+        <v>-1.570258378982544</v>
       </c>
       <c r="CS2">
-        <v>-0.1404501646757126</v>
+        <v>-0.0797172412276268</v>
       </c>
       <c r="CT2">
-        <v>1.144190549850464</v>
+        <v>0.9716058373451233</v>
       </c>
       <c r="CU2">
-        <v>0.7725117802619934</v>
+        <v>1.108489274978638</v>
       </c>
       <c r="CV2">
-        <v>1.545883417129517</v>
+        <v>0.9115595817565918</v>
       </c>
       <c r="CW2">
-        <v>0.7259343862533569</v>
+        <v>0.04395785927772522</v>
       </c>
       <c r="CX2">
-        <v>0.3853218853473663</v>
+        <v>0.3342618644237518</v>
       </c>
       <c r="CY2">
-        <v>6.654200553894043</v>
+        <v>6.662470817565918</v>
       </c>
       <c r="CZ2">
-        <v>1.05608594417572</v>
+        <v>1.522847771644592</v>
       </c>
       <c r="DA2">
-        <v>-13.1220588684082</v>
+        <v>-12.58440399169922</v>
       </c>
       <c r="DB2">
-        <v>-6.104101657867432</v>
+        <v>-6.088034152984619</v>
       </c>
       <c r="DC2">
-        <v>1.562929153442383</v>
+        <v>0.9188390374183655</v>
       </c>
       <c r="DD2">
-        <v>-7.643698692321777</v>
+        <v>-7.904469966888428</v>
       </c>
       <c r="DE2">
-        <v>0.2999892234802246</v>
+        <v>0.6046072840690613</v>
       </c>
       <c r="DF2">
-        <v>5.115174770355225</v>
+        <v>4.764910697937012</v>
       </c>
       <c r="DG2">
-        <v>0.7144090533256531</v>
+        <v>1.075427055358887</v>
       </c>
       <c r="DH2">
-        <v>15.6716251373291</v>
+        <v>14.86153221130371</v>
       </c>
       <c r="DI2">
-        <v>0.948640763759613</v>
+        <v>0.6200367212295532</v>
       </c>
       <c r="DJ2">
-        <v>-0.493365079164505</v>
+        <v>-1.267826318740845</v>
       </c>
       <c r="DK2">
-        <v>11.45432758331299</v>
+        <v>11.61758518218994</v>
       </c>
       <c r="DL2">
-        <v>1.681790351867676</v>
+        <v>1.753675937652588</v>
       </c>
       <c r="DM2">
-        <v>-16.98976707458496</v>
+        <v>-17.01418876647949</v>
       </c>
       <c r="DN2">
-        <v>-1.124709248542786</v>
+        <v>-1.272981882095337</v>
       </c>
       <c r="DO2">
-        <v>9.634784698486328</v>
+        <v>9.713881492614746</v>
       </c>
       <c r="DP2">
-        <v>-3.330930709838867</v>
+        <v>-3.518019914627075</v>
       </c>
       <c r="DQ2">
-        <v>1.905161023139954</v>
+        <v>2.177858114242554</v>
       </c>
       <c r="DR2">
-        <v>-0.8047323822975159</v>
+        <v>-0.08705057948827744</v>
       </c>
       <c r="DS2">
-        <v>-1.689609527587891</v>
+        <v>-1.389020562171936</v>
       </c>
       <c r="DT2">
-        <v>-17.46733093261719</v>
+        <v>-17.96270942687988</v>
       </c>
       <c r="DU2">
-        <v>-3.326681852340698</v>
+        <v>-3.059831380844116</v>
       </c>
       <c r="DV2">
-        <v>-0.549167275428772</v>
+        <v>-0.8796979784965515</v>
       </c>
       <c r="DW2">
-        <v>0.5609867572784424</v>
+        <v>0.3210059404373169</v>
       </c>
       <c r="DX2">
-        <v>0.4196862280368805</v>
+        <v>0.392426609992981</v>
       </c>
       <c r="DY2">
-        <v>0.3852705061435699</v>
+        <v>0.9571760296821594</v>
       </c>
       <c r="DZ2">
-        <v>0.7218065857887268</v>
+        <v>0.764494776725769</v>
       </c>
       <c r="EA2">
-        <v>1.115458011627197</v>
+        <v>1.75263786315918</v>
       </c>
       <c r="EB2">
-        <v>-0.5462076663970947</v>
+        <v>-0.4617501497268677</v>
       </c>
       <c r="EC2">
-        <v>-1.361475706100464</v>
+        <v>-0.65390944480896</v>
       </c>
       <c r="ED2">
-        <v>0.117783784866333</v>
+        <v>0.2572262287139893</v>
       </c>
       <c r="EE2">
-        <v>-1.349190235137939</v>
+        <v>-1.104256391525269</v>
       </c>
       <c r="EF2">
-        <v>-3.965179443359375</v>
+        <v>-3.671660423278809</v>
       </c>
       <c r="EG2">
-        <v>-1.68521523475647</v>
+        <v>-2.204053640365601</v>
       </c>
       <c r="EH2">
-        <v>-6.078866481781006</v>
+        <v>-6.53411340713501</v>
       </c>
       <c r="EI2">
-        <v>-3.019492864608765</v>
+        <v>-3.100085258483887</v>
       </c>
       <c r="EJ2">
-        <v>-17.23909759521484</v>
+        <v>-17.32896423339844</v>
       </c>
       <c r="EK2">
-        <v>1.782823204994202</v>
+        <v>1.590559840202332</v>
       </c>
       <c r="EL2">
-        <v>1.170470595359802</v>
+        <v>1.187422394752502</v>
       </c>
       <c r="EM2">
-        <v>0.2219223827123642</v>
+        <v>0.4049305021762848</v>
       </c>
       <c r="EN2">
-        <v>-1.11814546585083</v>
+        <v>-1.835370063781738</v>
       </c>
       <c r="EO2">
-        <v>10.62512969970703</v>
+        <v>11.0176477432251</v>
       </c>
       <c r="EP2">
-        <v>-1.691429257392883</v>
+        <v>-2.53428316116333</v>
       </c>
       <c r="EQ2">
-        <v>2.59586238861084</v>
+        <v>2.570797681808472</v>
       </c>
       <c r="ER2">
-        <v>-0.638368546962738</v>
+        <v>-0.3684499263763428</v>
       </c>
       <c r="ES2">
-        <v>-3.155168056488037</v>
+        <v>-3.743825435638428</v>
       </c>
       <c r="ET2">
-        <v>-3.064302921295166</v>
+        <v>-3.994189739227295</v>
       </c>
       <c r="EU2">
-        <v>8.230343818664551</v>
+        <v>8.050924301147461</v>
       </c>
       <c r="EV2">
-        <v>-3.565016746520996</v>
+        <v>-4.128674030303955</v>
       </c>
       <c r="EW2">
-        <v>-4.876930713653564</v>
+        <v>-5.055990219116211</v>
       </c>
       <c r="EX2">
-        <v>-7.188774585723877</v>
+        <v>-7.344090938568115</v>
       </c>
       <c r="EY2">
-        <v>1.128671526908875</v>
+        <v>1.205891370773315</v>
       </c>
       <c r="EZ2">
-        <v>-6.559307098388672</v>
+        <v>-6.318225860595703</v>
       </c>
       <c r="FA2">
-        <v>0.4317207634449005</v>
+        <v>0.4387363791465759</v>
       </c>
       <c r="FB2">
-        <v>-1.369439959526062</v>
+        <v>-1.127470374107361</v>
       </c>
       <c r="FC2">
-        <v>13.58913707733154</v>
+        <v>12.70975875854492</v>
       </c>
       <c r="FD2">
-        <v>-2.365419149398804</v>
+        <v>-2.046818017959595</v>
       </c>
       <c r="FE2">
-        <v>9.617206573486328</v>
+        <v>9.988357543945312</v>
       </c>
       <c r="FF2">
-        <v>-13.19277954101562</v>
+        <v>-13.26504898071289</v>
       </c>
       <c r="FG2">
-        <v>-18.11853218078613</v>
+        <v>-18.08053588867188</v>
       </c>
       <c r="FH2">
-        <v>-0.1359230279922485</v>
+        <v>-0.4206500947475433</v>
       </c>
       <c r="FI2">
-        <v>-2.672155618667603</v>
+        <v>-3.082812070846558</v>
       </c>
       <c r="FJ2">
-        <v>4.049125194549561</v>
+        <v>3.679254055023193</v>
       </c>
       <c r="FK2">
-        <v>7.866580009460449</v>
+        <v>7.65033483505249</v>
       </c>
       <c r="FL2">
-        <v>-8.153779029846191</v>
+        <v>-7.689333438873291</v>
       </c>
       <c r="FM2">
-        <v>7.576131343841553</v>
+        <v>8.567815780639648</v>
       </c>
       <c r="FN2">
-        <v>8.2054443359375</v>
+        <v>8.092118263244629</v>
       </c>
       <c r="FO2">
-        <v>-2.451865196228027</v>
+        <v>-2.901618003845215</v>
       </c>
       <c r="FP2">
-        <v>-1.623485803604126</v>
+        <v>-1.953503489494324</v>
       </c>
       <c r="FQ2">
-        <v>0.03047754615545273</v>
+        <v>0.03540253266692162</v>
       </c>
       <c r="FR2">
-        <v>-1.898396253585815</v>
+        <v>-1.693620920181274</v>
       </c>
       <c r="FS2">
-        <v>0.307409256696701</v>
+        <v>0.1766542941331863</v>
       </c>
       <c r="FT2">
-        <v>-0.8534542322158813</v>
+        <v>-0.7223206758499146</v>
       </c>
       <c r="FU2">
-        <v>-0.2405098080635071</v>
+        <v>-0.2754678130149841</v>
       </c>
       <c r="FV2">
-        <v>-0.5881860852241516</v>
+        <v>-0.6408498883247375</v>
       </c>
       <c r="FW2">
-        <v>4.314023971557617</v>
+        <v>4.685029983520508</v>
       </c>
       <c r="FX2">
-        <v>-0.006147415842860937</v>
+        <v>0.1214606612920761</v>
       </c>
       <c r="FY2">
-        <v>-0.9221747517585754</v>
+        <v>-0.3314789831638336</v>
       </c>
       <c r="FZ2">
-        <v>1.367110133171082</v>
+        <v>1.026899337768555</v>
       </c>
       <c r="GA2">
-        <v>-11.82172393798828</v>
+        <v>-11.23660564422607</v>
       </c>
       <c r="GB2">
-        <v>1.953122138977051</v>
+        <v>1.801715612411499</v>
       </c>
       <c r="GC2">
-        <v>-8.26545238494873</v>
+        <v>-8.020532608032227</v>
       </c>
       <c r="GD2">
-        <v>-2.770230293273926</v>
+        <v>-2.807373285293579</v>
       </c>
       <c r="GE2">
-        <v>1.142667770385742</v>
+        <v>1.053664803504944</v>
       </c>
       <c r="GF2">
-        <v>2.010594367980957</v>
+        <v>1.526758074760437</v>
       </c>
       <c r="GG2">
-        <v>-3.568659543991089</v>
+        <v>-4.167361259460449</v>
       </c>
       <c r="GH2">
-        <v>0.5817312598228455</v>
+        <v>0.638047993183136</v>
       </c>
       <c r="GI2">
-        <v>3.43658971786499</v>
+        <v>3.856087923049927</v>
       </c>
       <c r="GJ2">
-        <v>-0.9360660910606384</v>
+        <v>-0.5168671607971191</v>
       </c>
       <c r="GK2">
-        <v>2.307737350463867</v>
+        <v>2.603620290756226</v>
       </c>
       <c r="GL2">
-        <v>-16.31322288513184</v>
+        <v>-15.61455249786377</v>
       </c>
       <c r="GM2">
-        <v>-11.97497940063477</v>
+        <v>-12.18427276611328</v>
       </c>
       <c r="GN2">
-        <v>12.82695865631104</v>
+        <v>12.47015571594238</v>
       </c>
       <c r="GO2">
-        <v>0.566071093082428</v>
+        <v>-0.1268756538629532</v>
       </c>
       <c r="GP2">
-        <v>1.066561460494995</v>
+        <v>0.7806631922721863</v>
       </c>
       <c r="GQ2">
-        <v>-1.543759226799011</v>
+        <v>-1.151388645172119</v>
       </c>
       <c r="GR2">
-        <v>-0.4174138903617859</v>
+        <v>-0.1640301495790482</v>
       </c>
       <c r="GS2">
-        <v>-4.499772548675537</v>
+        <v>-4.210309982299805</v>
       </c>
       <c r="GT2">
-        <v>-0.4629899263381958</v>
+        <v>-0.8458986282348633</v>
       </c>
       <c r="GU2">
-        <v>-3.241834402084351</v>
+        <v>-2.983872890472412</v>
       </c>
       <c r="GV2">
-        <v>-1.592480540275574</v>
+        <v>-2.241602420806885</v>
       </c>
       <c r="GW2">
-        <v>7.571567535400391</v>
+        <v>8.089393615722656</v>
       </c>
       <c r="GX2">
-        <v>-0.6626227498054504</v>
+        <v>-0.964555561542511</v>
       </c>
       <c r="GY2">
-        <v>-0.5431746244430542</v>
+        <v>-0.5918483734130859</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Infrastructure.xlsx
+++ b/static/Models/Classification/Equation/Infrastructure.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>6.156713485717773</v>
+        <v>6.418632507324219</v>
       </c>
       <c r="C2">
-        <v>3.073906421661377</v>
+        <v>3.064342737197876</v>
       </c>
       <c r="D2">
-        <v>-5.822100162506104</v>
+        <v>-5.693478107452393</v>
       </c>
       <c r="E2">
-        <v>5.538885116577148</v>
+        <v>5.369616985321045</v>
       </c>
       <c r="F2">
-        <v>1.45960259437561</v>
+        <v>1.672297835350037</v>
       </c>
       <c r="G2">
-        <v>7.863642692565918</v>
+        <v>7.779933929443359</v>
       </c>
       <c r="H2">
-        <v>0.2746722102165222</v>
+        <v>0.4075121581554413</v>
       </c>
       <c r="I2">
-        <v>0.691900908946991</v>
+        <v>0.5533314347267151</v>
       </c>
       <c r="J2">
-        <v>-0.4498908817768097</v>
+        <v>-0.2645404636859894</v>
       </c>
       <c r="K2">
-        <v>-1.394299507141113</v>
+        <v>-1.341012001037598</v>
       </c>
       <c r="L2">
-        <v>1.701691627502441</v>
+        <v>1.363717794418335</v>
       </c>
       <c r="M2">
-        <v>0.9980680346488953</v>
+        <v>0.5755572319030762</v>
       </c>
       <c r="N2">
-        <v>-0.8107068538665771</v>
+        <v>-1.326334238052368</v>
       </c>
       <c r="O2">
-        <v>9.985777854919434</v>
+        <v>9.909829139709473</v>
       </c>
       <c r="P2">
-        <v>2.292129278182983</v>
+        <v>2.497641324996948</v>
       </c>
       <c r="Q2">
-        <v>-11.22476577758789</v>
+        <v>-11.64375400543213</v>
       </c>
       <c r="R2">
-        <v>-0.3584094941616058</v>
+        <v>-0.0935608297586441</v>
       </c>
       <c r="S2">
-        <v>-2.310913324356079</v>
+        <v>-1.976255655288696</v>
       </c>
       <c r="T2">
-        <v>4.056509017944336</v>
+        <v>3.91257905960083</v>
       </c>
       <c r="U2">
-        <v>-2.574358701705933</v>
+        <v>-2.067362785339355</v>
       </c>
       <c r="V2">
-        <v>0.2421697676181793</v>
+        <v>-0.05226344615221024</v>
       </c>
       <c r="W2">
-        <v>-1.087593674659729</v>
+        <v>-1.063022494316101</v>
       </c>
       <c r="X2">
-        <v>1.028477311134338</v>
+        <v>1.068364262580872</v>
       </c>
       <c r="Y2">
-        <v>3.463849544525146</v>
+        <v>3.415443897247314</v>
       </c>
       <c r="Z2">
-        <v>9.712985992431641</v>
+        <v>9.591374397277832</v>
       </c>
       <c r="AA2">
-        <v>0.7809135317802429</v>
+        <v>0.887977123260498</v>
       </c>
       <c r="AB2">
-        <v>-1.77016270160675</v>
+        <v>-1.402948975563049</v>
       </c>
       <c r="AC2">
-        <v>6.307198047637939</v>
+        <v>6.718749523162842</v>
       </c>
       <c r="AD2">
-        <v>0.2762482762336731</v>
+        <v>0.03691458329558372</v>
       </c>
       <c r="AE2">
-        <v>-1.356676936149597</v>
+        <v>-1.175336241722107</v>
       </c>
       <c r="AF2">
-        <v>2.223194599151611</v>
+        <v>2.104345560073853</v>
       </c>
       <c r="AG2">
-        <v>-1.381450295448303</v>
+        <v>-1.190055251121521</v>
       </c>
       <c r="AH2">
-        <v>-6.42076301574707</v>
+        <v>-6.858924865722656</v>
       </c>
       <c r="AI2">
-        <v>-5.145747661590576</v>
+        <v>-5.407472133636475</v>
       </c>
       <c r="AJ2">
-        <v>1.195855140686035</v>
+        <v>0.7347992062568665</v>
       </c>
       <c r="AK2">
-        <v>-0.1988894492387772</v>
+        <v>-0.7685114145278931</v>
       </c>
       <c r="AL2">
-        <v>-0.3588036894798279</v>
+        <v>-0.5594778060913086</v>
       </c>
       <c r="AM2">
-        <v>2.050620079040527</v>
+        <v>2.170178413391113</v>
       </c>
       <c r="AN2">
-        <v>3.892842054367065</v>
+        <v>3.771193027496338</v>
       </c>
       <c r="AO2">
-        <v>1.313273429870605</v>
+        <v>1.171768307685852</v>
       </c>
       <c r="AP2">
-        <v>-0.4838225841522217</v>
+        <v>-0.2856106758117676</v>
       </c>
       <c r="AQ2">
-        <v>0.01793662831187248</v>
+        <v>-0.1119512021541595</v>
       </c>
       <c r="AR2">
-        <v>0.3170126378536224</v>
+        <v>0.1527320146560669</v>
       </c>
       <c r="AS2">
-        <v>-0.4518328011035919</v>
+        <v>-0.5861649513244629</v>
       </c>
       <c r="AT2">
-        <v>-4.524995803833008</v>
+        <v>-4.094873905181885</v>
       </c>
       <c r="AU2">
-        <v>-18.3903923034668</v>
+        <v>-18.76352691650391</v>
       </c>
       <c r="AV2">
-        <v>-1.660230398178101</v>
+        <v>-1.644783496856689</v>
       </c>
       <c r="AW2">
-        <v>-3.28804087638855</v>
+        <v>-3.285353422164917</v>
       </c>
       <c r="AX2">
-        <v>0.1345884501934052</v>
+        <v>0.03796146064996719</v>
       </c>
       <c r="AY2">
-        <v>4.557973861694336</v>
+        <v>4.671284675598145</v>
       </c>
       <c r="AZ2">
-        <v>5.175736427307129</v>
+        <v>5.245953559875488</v>
       </c>
       <c r="BA2">
-        <v>7.183233261108398</v>
+        <v>7.492118835449219</v>
       </c>
       <c r="BB2">
-        <v>1.705897808074951</v>
+        <v>1.588095426559448</v>
       </c>
       <c r="BC2">
-        <v>0.510796844959259</v>
+        <v>0.2541006505489349</v>
       </c>
       <c r="BD2">
-        <v>-0.04049800708889961</v>
+        <v>-0.2650685608386993</v>
       </c>
       <c r="BE2">
-        <v>1.666920900344849</v>
+        <v>1.329087138175964</v>
       </c>
       <c r="BF2">
-        <v>8.339921951293945</v>
+        <v>8.526576042175293</v>
       </c>
       <c r="BG2">
-        <v>-2.006819725036621</v>
+        <v>-2.18965744972229</v>
       </c>
       <c r="BH2">
-        <v>-0.4315034449100494</v>
+        <v>0.1382080018520355</v>
       </c>
       <c r="BI2">
-        <v>8.738234519958496</v>
+        <v>8.77446460723877</v>
       </c>
       <c r="BJ2">
-        <v>-0.7341877222061157</v>
+        <v>-0.5749717950820923</v>
       </c>
       <c r="BK2">
-        <v>1.945666670799255</v>
+        <v>2.014398813247681</v>
       </c>
       <c r="BL2">
-        <v>8.566970825195312</v>
+        <v>8.816153526306152</v>
       </c>
       <c r="BM2">
-        <v>-5.289558410644531</v>
+        <v>-5.172412872314453</v>
       </c>
       <c r="BN2">
-        <v>-23.74868583679199</v>
+        <v>-23.69959449768066</v>
       </c>
       <c r="BO2">
-        <v>0.07780611515045166</v>
+        <v>-0.07001935690641403</v>
       </c>
       <c r="BP2">
-        <v>5.315564632415771</v>
+        <v>5.722845077514648</v>
       </c>
       <c r="BQ2">
-        <v>0.288875013589859</v>
+        <v>0.1856826543807983</v>
       </c>
       <c r="BR2">
-        <v>-0.9775876998901367</v>
+        <v>-0.877618134021759</v>
       </c>
       <c r="BS2">
-        <v>-1.224605321884155</v>
+        <v>-1.209914326667786</v>
       </c>
       <c r="BT2">
-        <v>2.568878650665283</v>
+        <v>2.363965749740601</v>
       </c>
       <c r="BU2">
-        <v>-0.2423595041036606</v>
+        <v>-0.4928977787494659</v>
       </c>
       <c r="BV2">
-        <v>-0.0825996920466423</v>
+        <v>-0.1820107698440552</v>
       </c>
       <c r="BW2">
-        <v>-0.5009462833404541</v>
+        <v>-0.3852298259735107</v>
       </c>
       <c r="BX2">
-        <v>-2.0252685546875</v>
+        <v>-1.851617932319641</v>
       </c>
       <c r="BY2">
-        <v>-2.337741851806641</v>
+        <v>-2.436150074005127</v>
       </c>
       <c r="BZ2">
-        <v>-3.18951940536499</v>
+        <v>-2.971178293228149</v>
       </c>
       <c r="CA2">
-        <v>-2.454549312591553</v>
+        <v>-2.524989366531372</v>
       </c>
       <c r="CB2">
-        <v>-5.527569770812988</v>
+        <v>-5.611815452575684</v>
       </c>
       <c r="CC2">
-        <v>-1.024604558944702</v>
+        <v>-1.141909122467041</v>
       </c>
       <c r="CD2">
-        <v>-0.05426053330302238</v>
+        <v>0.1995815336704254</v>
       </c>
       <c r="CE2">
-        <v>1.609202980995178</v>
+        <v>1.403177618980408</v>
       </c>
       <c r="CF2">
-        <v>1.172824025154114</v>
+        <v>0.9810729622840881</v>
       </c>
       <c r="CG2">
-        <v>1.842453956604004</v>
+        <v>1.633390426635742</v>
       </c>
       <c r="CH2">
-        <v>-1.812004566192627</v>
+        <v>-1.027024149894714</v>
       </c>
       <c r="CI2">
-        <v>-1.588085412979126</v>
+        <v>-1.814009666442871</v>
       </c>
       <c r="CJ2">
-        <v>4.170282363891602</v>
+        <v>4.210333347320557</v>
       </c>
       <c r="CK2">
-        <v>-1.495928764343262</v>
+        <v>-1.660258412361145</v>
       </c>
       <c r="CL2">
-        <v>0.2870286405086517</v>
+        <v>0.1032396703958511</v>
       </c>
       <c r="CM2">
-        <v>6.876461505889893</v>
+        <v>6.699391841888428</v>
       </c>
       <c r="CN2">
-        <v>0.9682965278625488</v>
+        <v>1.257572650909424</v>
       </c>
       <c r="CO2">
-        <v>0.4738715887069702</v>
+        <v>0.3398199677467346</v>
       </c>
       <c r="CP2">
-        <v>4.995681762695312</v>
+        <v>4.373046398162842</v>
       </c>
       <c r="CQ2">
-        <v>0.4647729992866516</v>
+        <v>0.5254913568496704</v>
       </c>
       <c r="CR2">
-        <v>-1.570258378982544</v>
+        <v>-1.412192583084106</v>
       </c>
       <c r="CS2">
-        <v>-0.0797172412276268</v>
+        <v>-0.3875500857830048</v>
       </c>
       <c r="CT2">
-        <v>0.9716058373451233</v>
+        <v>0.8416581749916077</v>
       </c>
       <c r="CU2">
-        <v>1.108489274978638</v>
+        <v>1.226348519325256</v>
       </c>
       <c r="CV2">
-        <v>0.9115595817565918</v>
+        <v>1.030491471290588</v>
       </c>
       <c r="CW2">
-        <v>0.04395785927772522</v>
+        <v>0.1524105072021484</v>
       </c>
       <c r="CX2">
-        <v>0.3342618644237518</v>
+        <v>0.5133320689201355</v>
       </c>
       <c r="CY2">
-        <v>6.662470817565918</v>
+        <v>6.598932266235352</v>
       </c>
       <c r="CZ2">
-        <v>1.522847771644592</v>
+        <v>1.572344779968262</v>
       </c>
       <c r="DA2">
-        <v>-12.58440399169922</v>
+        <v>-12.49715709686279</v>
       </c>
       <c r="DB2">
-        <v>-6.088034152984619</v>
+        <v>-5.651218414306641</v>
       </c>
       <c r="DC2">
-        <v>0.9188390374183655</v>
+        <v>1.222370505332947</v>
       </c>
       <c r="DD2">
-        <v>-7.904469966888428</v>
+        <v>-7.746026515960693</v>
       </c>
       <c r="DE2">
-        <v>0.6046072840690613</v>
+        <v>0.3131518363952637</v>
       </c>
       <c r="DF2">
-        <v>4.764910697937012</v>
+        <v>4.534872531890869</v>
       </c>
       <c r="DG2">
-        <v>1.075427055358887</v>
+        <v>1.234673142433167</v>
       </c>
       <c r="DH2">
-        <v>14.86153221130371</v>
+        <v>14.79169940948486</v>
       </c>
       <c r="DI2">
-        <v>0.6200367212295532</v>
+        <v>0.5001530051231384</v>
       </c>
       <c r="DJ2">
-        <v>-1.267826318740845</v>
+        <v>-1.208298802375793</v>
       </c>
       <c r="DK2">
-        <v>11.61758518218994</v>
+        <v>11.61350059509277</v>
       </c>
       <c r="DL2">
-        <v>1.753675937652588</v>
+        <v>1.478284597396851</v>
       </c>
       <c r="DM2">
-        <v>-17.01418876647949</v>
+        <v>-16.81988143920898</v>
       </c>
       <c r="DN2">
-        <v>-1.272981882095337</v>
+        <v>-1.4623783826828</v>
       </c>
       <c r="DO2">
-        <v>9.713881492614746</v>
+        <v>9.568838119506836</v>
       </c>
       <c r="DP2">
-        <v>-3.518019914627075</v>
+        <v>-3.258577823638916</v>
       </c>
       <c r="DQ2">
-        <v>2.177858114242554</v>
+        <v>1.949369430541992</v>
       </c>
       <c r="DR2">
-        <v>-0.08705057948827744</v>
+        <v>-0.06620645523071289</v>
       </c>
       <c r="DS2">
-        <v>-1.389020562171936</v>
+        <v>-1.680599689483643</v>
       </c>
       <c r="DT2">
-        <v>-17.96270942687988</v>
+        <v>-17.91644096374512</v>
       </c>
       <c r="DU2">
-        <v>-3.059831380844116</v>
+        <v>-3.228403806686401</v>
       </c>
       <c r="DV2">
-        <v>-0.8796979784965515</v>
+        <v>-0.6787425875663757</v>
       </c>
       <c r="DW2">
-        <v>0.3210059404373169</v>
+        <v>0.2044677883386612</v>
       </c>
       <c r="DX2">
-        <v>0.392426609992981</v>
+        <v>0.2619332671165466</v>
       </c>
       <c r="DY2">
-        <v>0.9571760296821594</v>
+        <v>1.016215562820435</v>
       </c>
       <c r="DZ2">
-        <v>0.764494776725769</v>
+        <v>1.04512631893158</v>
       </c>
       <c r="EA2">
-        <v>1.75263786315918</v>
+        <v>1.935471534729004</v>
       </c>
       <c r="EB2">
-        <v>-0.4617501497268677</v>
+        <v>-0.6989784836769104</v>
       </c>
       <c r="EC2">
-        <v>-0.65390944480896</v>
+        <v>-1.220797300338745</v>
       </c>
       <c r="ED2">
-        <v>0.2572262287139893</v>
+        <v>0.1121491864323616</v>
       </c>
       <c r="EE2">
-        <v>-1.104256391525269</v>
+        <v>-1.338740468025208</v>
       </c>
       <c r="EF2">
-        <v>-3.671660423278809</v>
+        <v>-3.7668137550354</v>
       </c>
       <c r="EG2">
-        <v>-2.204053640365601</v>
+        <v>-2.119489908218384</v>
       </c>
       <c r="EH2">
-        <v>-6.53411340713501</v>
+        <v>-6.40316915512085</v>
       </c>
       <c r="EI2">
-        <v>-3.100085258483887</v>
+        <v>-2.960060834884644</v>
       </c>
       <c r="EJ2">
-        <v>-17.32896423339844</v>
+        <v>-17.90618133544922</v>
       </c>
       <c r="EK2">
-        <v>1.590559840202332</v>
+        <v>1.387023448944092</v>
       </c>
       <c r="EL2">
-        <v>1.187422394752502</v>
+        <v>1.038540601730347</v>
       </c>
       <c r="EM2">
-        <v>0.4049305021762848</v>
+        <v>0.7071541547775269</v>
       </c>
       <c r="EN2">
-        <v>-1.835370063781738</v>
+        <v>-1.885568976402283</v>
       </c>
       <c r="EO2">
-        <v>11.0176477432251</v>
+        <v>10.85488891601562</v>
       </c>
       <c r="EP2">
-        <v>-2.53428316116333</v>
+        <v>-2.658942222595215</v>
       </c>
       <c r="EQ2">
-        <v>2.570797681808472</v>
+        <v>2.408277273178101</v>
       </c>
       <c r="ER2">
-        <v>-0.3684499263763428</v>
+        <v>-0.4039482474327087</v>
       </c>
       <c r="ES2">
-        <v>-3.743825435638428</v>
+        <v>-3.950645208358765</v>
       </c>
       <c r="ET2">
-        <v>-3.994189739227295</v>
+        <v>-3.843709230422974</v>
       </c>
       <c r="EU2">
-        <v>8.050924301147461</v>
+        <v>7.797565937042236</v>
       </c>
       <c r="EV2">
-        <v>-4.128674030303955</v>
+        <v>-3.9421706199646</v>
       </c>
       <c r="EW2">
-        <v>-5.055990219116211</v>
+        <v>-4.973267078399658</v>
       </c>
       <c r="EX2">
-        <v>-7.344090938568115</v>
+        <v>-7.261614799499512</v>
       </c>
       <c r="EY2">
-        <v>1.205891370773315</v>
+        <v>0.9244517087936401</v>
       </c>
       <c r="EZ2">
-        <v>-6.318225860595703</v>
+        <v>-6.073674201965332</v>
       </c>
       <c r="FA2">
-        <v>0.4387363791465759</v>
+        <v>0.09413515776395798</v>
       </c>
       <c r="FB2">
-        <v>-1.127470374107361</v>
+        <v>-1.323979496955872</v>
       </c>
       <c r="FC2">
-        <v>12.70975875854492</v>
+        <v>12.66773509979248</v>
       </c>
       <c r="FD2">
-        <v>-2.046818017959595</v>
+        <v>-2.002679347991943</v>
       </c>
       <c r="FE2">
-        <v>9.988357543945312</v>
+        <v>9.640786170959473</v>
       </c>
       <c r="FF2">
-        <v>-13.26504898071289</v>
+        <v>-13.06383228302002</v>
       </c>
       <c r="FG2">
-        <v>-18.08053588867188</v>
+        <v>-17.31194877624512</v>
       </c>
       <c r="FH2">
-        <v>-0.4206500947475433</v>
+        <v>-0.3522624373435974</v>
       </c>
       <c r="FI2">
-        <v>-3.082812070846558</v>
+        <v>-3.135065793991089</v>
       </c>
       <c r="FJ2">
-        <v>3.679254055023193</v>
+        <v>3.755399703979492</v>
       </c>
       <c r="FK2">
-        <v>7.65033483505249</v>
+        <v>7.325347900390625</v>
       </c>
       <c r="FL2">
-        <v>-7.689333438873291</v>
+        <v>-7.53122615814209</v>
       </c>
       <c r="FM2">
-        <v>8.567815780639648</v>
+        <v>8.304329872131348</v>
       </c>
       <c r="FN2">
-        <v>8.092118263244629</v>
+        <v>8.030684471130371</v>
       </c>
       <c r="FO2">
-        <v>-2.901618003845215</v>
+        <v>-3.160547018051147</v>
       </c>
       <c r="FP2">
-        <v>-1.953503489494324</v>
+        <v>-2.349969148635864</v>
       </c>
       <c r="FQ2">
-        <v>0.03540253266692162</v>
+        <v>-0.190102756023407</v>
       </c>
       <c r="FR2">
-        <v>-1.693620920181274</v>
+        <v>-1.925822734832764</v>
       </c>
       <c r="FS2">
-        <v>0.1766542941331863</v>
+        <v>0.01283114589750767</v>
       </c>
       <c r="FT2">
-        <v>-0.7223206758499146</v>
+        <v>-0.8656212091445923</v>
       </c>
       <c r="FU2">
-        <v>-0.2754678130149841</v>
+        <v>-0.3924932777881622</v>
       </c>
       <c r="FV2">
-        <v>-0.6408498883247375</v>
+        <v>-0.8705077171325684</v>
       </c>
       <c r="FW2">
-        <v>4.685029983520508</v>
+        <v>4.951490879058838</v>
       </c>
       <c r="FX2">
-        <v>0.1214606612920761</v>
+        <v>0.2783130407333374</v>
       </c>
       <c r="FY2">
-        <v>-0.3314789831638336</v>
+        <v>-0.1920858919620514</v>
       </c>
       <c r="FZ2">
-        <v>1.026899337768555</v>
+        <v>0.8959397673606873</v>
       </c>
       <c r="GA2">
-        <v>-11.23660564422607</v>
+        <v>-10.84640693664551</v>
       </c>
       <c r="GB2">
-        <v>1.801715612411499</v>
+        <v>2.088853120803833</v>
       </c>
       <c r="GC2">
-        <v>-8.020532608032227</v>
+        <v>-8.458266258239746</v>
       </c>
       <c r="GD2">
-        <v>-2.807373285293579</v>
+        <v>-2.840245485305786</v>
       </c>
       <c r="GE2">
-        <v>1.053664803504944</v>
+        <v>0.8992587327957153</v>
       </c>
       <c r="GF2">
-        <v>1.526758074760437</v>
+        <v>1.54844343662262</v>
       </c>
       <c r="GG2">
-        <v>-4.167361259460449</v>
+        <v>-3.806699514389038</v>
       </c>
       <c r="GH2">
-        <v>0.638047993183136</v>
+        <v>0.7754490971565247</v>
       </c>
       <c r="GI2">
-        <v>3.856087923049927</v>
+        <v>3.969967603683472</v>
       </c>
       <c r="GJ2">
-        <v>-0.5168671607971191</v>
+        <v>-0.6595876216888428</v>
       </c>
       <c r="GK2">
-        <v>2.603620290756226</v>
+        <v>3.149816036224365</v>
       </c>
       <c r="GL2">
-        <v>-15.61455249786377</v>
+        <v>-15.51332092285156</v>
       </c>
       <c r="GM2">
-        <v>-12.18427276611328</v>
+        <v>-12.88363742828369</v>
       </c>
       <c r="GN2">
-        <v>12.47015571594238</v>
+        <v>12.73674583435059</v>
       </c>
       <c r="GO2">
-        <v>-0.1268756538629532</v>
+        <v>-0.07085003703832626</v>
       </c>
       <c r="GP2">
-        <v>0.7806631922721863</v>
+        <v>0.5840792655944824</v>
       </c>
       <c r="GQ2">
-        <v>-1.151388645172119</v>
+        <v>-1.030348539352417</v>
       </c>
       <c r="GR2">
-        <v>-0.1640301495790482</v>
+        <v>-0.2527470886707306</v>
       </c>
       <c r="GS2">
-        <v>-4.210309982299805</v>
+        <v>-4.27794075012207</v>
       </c>
       <c r="GT2">
-        <v>-0.8458986282348633</v>
+        <v>-0.6412943005561829</v>
       </c>
       <c r="GU2">
-        <v>-2.983872890472412</v>
+        <v>-2.916913986206055</v>
       </c>
       <c r="GV2">
-        <v>-2.241602420806885</v>
+        <v>-2.180629014968872</v>
       </c>
       <c r="GW2">
-        <v>8.089393615722656</v>
+        <v>8.390116691589355</v>
       </c>
       <c r="GX2">
-        <v>-0.964555561542511</v>
+        <v>-1.164587497711182</v>
       </c>
       <c r="GY2">
-        <v>-0.5918483734130859</v>
+        <v>-0.8240347504615784</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Infrastructure.xlsx
+++ b/static/Models/Classification/Equation/Infrastructure.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>6.418632507324219</v>
+        <v>6.623664379119873</v>
       </c>
       <c r="C2">
-        <v>3.064342737197876</v>
+        <v>2.049292325973511</v>
       </c>
       <c r="D2">
-        <v>-5.693478107452393</v>
+        <v>-5.397165775299072</v>
       </c>
       <c r="E2">
-        <v>5.369616985321045</v>
+        <v>4.886051177978516</v>
       </c>
       <c r="F2">
-        <v>1.672297835350037</v>
+        <v>0.7137913703918457</v>
       </c>
       <c r="G2">
-        <v>7.779933929443359</v>
+        <v>7.16285514831543</v>
       </c>
       <c r="H2">
-        <v>0.4075121581554413</v>
+        <v>-0.6127403378486633</v>
       </c>
       <c r="I2">
-        <v>0.5533314347267151</v>
+        <v>0.9957388043403625</v>
       </c>
       <c r="J2">
-        <v>-0.2645404636859894</v>
+        <v>0.4495663046836853</v>
       </c>
       <c r="K2">
-        <v>-1.341012001037598</v>
+        <v>-1.620301246643066</v>
       </c>
       <c r="L2">
-        <v>1.363717794418335</v>
+        <v>1.072296023368835</v>
       </c>
       <c r="M2">
-        <v>0.5755572319030762</v>
+        <v>-0.3645514249801636</v>
       </c>
       <c r="N2">
-        <v>-1.326334238052368</v>
+        <v>-1.694533348083496</v>
       </c>
       <c r="O2">
-        <v>9.909829139709473</v>
+        <v>9.801608085632324</v>
       </c>
       <c r="P2">
-        <v>2.497641324996948</v>
+        <v>2.795313119888306</v>
       </c>
       <c r="Q2">
-        <v>-11.64375400543213</v>
+        <v>-10.58135223388672</v>
       </c>
       <c r="R2">
-        <v>-0.0935608297586441</v>
+        <v>0.7631465196609497</v>
       </c>
       <c r="S2">
-        <v>-1.976255655288696</v>
+        <v>-0.6543158888816833</v>
       </c>
       <c r="T2">
-        <v>3.91257905960083</v>
+        <v>4.321057796478271</v>
       </c>
       <c r="U2">
-        <v>-2.067362785339355</v>
+        <v>-2.754038095474243</v>
       </c>
       <c r="V2">
-        <v>-0.05226344615221024</v>
+        <v>1.193751335144043</v>
       </c>
       <c r="W2">
-        <v>-1.063022494316101</v>
+        <v>0.06124801561236382</v>
       </c>
       <c r="X2">
-        <v>1.068364262580872</v>
+        <v>1.430514812469482</v>
       </c>
       <c r="Y2">
-        <v>3.415443897247314</v>
+        <v>3.612405061721802</v>
       </c>
       <c r="Z2">
-        <v>9.591374397277832</v>
+        <v>9.579543113708496</v>
       </c>
       <c r="AA2">
-        <v>0.887977123260498</v>
+        <v>0.9399631023406982</v>
       </c>
       <c r="AB2">
-        <v>-1.402948975563049</v>
+        <v>-0.9968491792678833</v>
       </c>
       <c r="AC2">
-        <v>6.718749523162842</v>
+        <v>7.571310043334961</v>
       </c>
       <c r="AD2">
-        <v>0.03691458329558372</v>
+        <v>0.4509966373443604</v>
       </c>
       <c r="AE2">
-        <v>-1.175336241722107</v>
+        <v>-0.6488360166549683</v>
       </c>
       <c r="AF2">
-        <v>2.104345560073853</v>
+        <v>2.504863977432251</v>
       </c>
       <c r="AG2">
-        <v>-1.190055251121521</v>
+        <v>-0.6873751282691956</v>
       </c>
       <c r="AH2">
-        <v>-6.858924865722656</v>
+        <v>-7.602763175964355</v>
       </c>
       <c r="AI2">
-        <v>-5.407472133636475</v>
+        <v>-5.866073608398438</v>
       </c>
       <c r="AJ2">
-        <v>0.7347992062568665</v>
+        <v>0.1492149084806442</v>
       </c>
       <c r="AK2">
-        <v>-0.7685114145278931</v>
+        <v>-1.013739585876465</v>
       </c>
       <c r="AL2">
-        <v>-0.5594778060913086</v>
+        <v>0.8208001255989075</v>
       </c>
       <c r="AM2">
-        <v>2.170178413391113</v>
+        <v>2.519765138626099</v>
       </c>
       <c r="AN2">
-        <v>3.771193027496338</v>
+        <v>4.414359569549561</v>
       </c>
       <c r="AO2">
-        <v>1.171768307685852</v>
+        <v>1.085188031196594</v>
       </c>
       <c r="AP2">
-        <v>-0.2856106758117676</v>
+        <v>-0.3172827959060669</v>
       </c>
       <c r="AQ2">
-        <v>-0.1119512021541595</v>
+        <v>0.4741825461387634</v>
       </c>
       <c r="AR2">
-        <v>0.1527320146560669</v>
+        <v>0.522624135017395</v>
       </c>
       <c r="AS2">
-        <v>-0.5861649513244629</v>
+        <v>0.5105124115943909</v>
       </c>
       <c r="AT2">
-        <v>-4.094873905181885</v>
+        <v>-3.388284921646118</v>
       </c>
       <c r="AU2">
-        <v>-18.76352691650391</v>
+        <v>-19.07309913635254</v>
       </c>
       <c r="AV2">
-        <v>-1.644783496856689</v>
+        <v>-1.205580115318298</v>
       </c>
       <c r="AW2">
-        <v>-3.285353422164917</v>
+        <v>-4.103913307189941</v>
       </c>
       <c r="AX2">
-        <v>0.03796146064996719</v>
+        <v>-0.8415663838386536</v>
       </c>
       <c r="AY2">
-        <v>4.671284675598145</v>
+        <v>5.282340526580811</v>
       </c>
       <c r="AZ2">
-        <v>5.245953559875488</v>
+        <v>5.263145923614502</v>
       </c>
       <c r="BA2">
-        <v>7.492118835449219</v>
+        <v>8.351316452026367</v>
       </c>
       <c r="BB2">
-        <v>1.588095426559448</v>
+        <v>1.88350236415863</v>
       </c>
       <c r="BC2">
-        <v>0.2541006505489349</v>
+        <v>-0.3416705429553986</v>
       </c>
       <c r="BD2">
-        <v>-0.2650685608386993</v>
+        <v>0.115829274058342</v>
       </c>
       <c r="BE2">
-        <v>1.329087138175964</v>
+        <v>0.6376702189445496</v>
       </c>
       <c r="BF2">
-        <v>8.526576042175293</v>
+        <v>8.466884613037109</v>
       </c>
       <c r="BG2">
-        <v>-2.18965744972229</v>
+        <v>-1.643641471862793</v>
       </c>
       <c r="BH2">
-        <v>0.1382080018520355</v>
+        <v>-0.6993976831436157</v>
       </c>
       <c r="BI2">
-        <v>8.77446460723877</v>
+        <v>9.23219108581543</v>
       </c>
       <c r="BJ2">
-        <v>-0.5749717950820923</v>
+        <v>-0.03893072903156281</v>
       </c>
       <c r="BK2">
-        <v>2.014398813247681</v>
+        <v>0.6854767799377441</v>
       </c>
       <c r="BL2">
-        <v>8.816153526306152</v>
+        <v>8.667131423950195</v>
       </c>
       <c r="BM2">
-        <v>-5.172412872314453</v>
+        <v>-5.098635196685791</v>
       </c>
       <c r="BN2">
-        <v>-23.69959449768066</v>
+        <v>-22.26363182067871</v>
       </c>
       <c r="BO2">
-        <v>-0.07001935690641403</v>
+        <v>0.2678046524524689</v>
       </c>
       <c r="BP2">
-        <v>5.722845077514648</v>
+        <v>6.33120059967041</v>
       </c>
       <c r="BQ2">
-        <v>0.1856826543807983</v>
+        <v>-0.1380261033773422</v>
       </c>
       <c r="BR2">
-        <v>-0.877618134021759</v>
+        <v>-2.555521249771118</v>
       </c>
       <c r="BS2">
-        <v>-1.209914326667786</v>
+        <v>-2.291376352310181</v>
       </c>
       <c r="BT2">
-        <v>2.363965749740601</v>
+        <v>2.619271039962769</v>
       </c>
       <c r="BU2">
-        <v>-0.4928977787494659</v>
+        <v>0.05108965188264847</v>
       </c>
       <c r="BV2">
-        <v>-0.1820107698440552</v>
+        <v>-1.139540672302246</v>
       </c>
       <c r="BW2">
-        <v>-0.3852298259735107</v>
+        <v>0.4451144337654114</v>
       </c>
       <c r="BX2">
-        <v>-1.851617932319641</v>
+        <v>-1.305761337280273</v>
       </c>
       <c r="BY2">
-        <v>-2.436150074005127</v>
+        <v>-1.740331768989563</v>
       </c>
       <c r="BZ2">
-        <v>-2.971178293228149</v>
+        <v>-1.811280012130737</v>
       </c>
       <c r="CA2">
-        <v>-2.524989366531372</v>
+        <v>-3.219066858291626</v>
       </c>
       <c r="CB2">
-        <v>-5.611815452575684</v>
+        <v>-4.938694953918457</v>
       </c>
       <c r="CC2">
-        <v>-1.141909122467041</v>
+        <v>-0.7263359427452087</v>
       </c>
       <c r="CD2">
-        <v>0.1995815336704254</v>
+        <v>0.6328746676445007</v>
       </c>
       <c r="CE2">
-        <v>1.403177618980408</v>
+        <v>1.957548856735229</v>
       </c>
       <c r="CF2">
-        <v>0.9810729622840881</v>
+        <v>-0.7184734344482422</v>
       </c>
       <c r="CG2">
-        <v>1.633390426635742</v>
+        <v>2.477744340896606</v>
       </c>
       <c r="CH2">
-        <v>-1.027024149894714</v>
+        <v>-0.1091102585196495</v>
       </c>
       <c r="CI2">
-        <v>-1.814009666442871</v>
+        <v>-1.398095726966858</v>
       </c>
       <c r="CJ2">
-        <v>4.210333347320557</v>
+        <v>4.413303852081299</v>
       </c>
       <c r="CK2">
-        <v>-1.660258412361145</v>
+        <v>-1.055477380752563</v>
       </c>
       <c r="CL2">
-        <v>0.1032396703958511</v>
+        <v>0.3510039150714874</v>
       </c>
       <c r="CM2">
-        <v>6.699391841888428</v>
+        <v>7.3010573387146</v>
       </c>
       <c r="CN2">
-        <v>1.257572650909424</v>
+        <v>0.8109207153320312</v>
       </c>
       <c r="CO2">
-        <v>0.3398199677467346</v>
+        <v>0.8118592500686646</v>
       </c>
       <c r="CP2">
-        <v>4.373046398162842</v>
+        <v>4.388333797454834</v>
       </c>
       <c r="CQ2">
-        <v>0.5254913568496704</v>
+        <v>1.371945381164551</v>
       </c>
       <c r="CR2">
-        <v>-1.412192583084106</v>
+        <v>-1.207997918128967</v>
       </c>
       <c r="CS2">
-        <v>-0.3875500857830048</v>
+        <v>0.02943055145442486</v>
       </c>
       <c r="CT2">
-        <v>0.8416581749916077</v>
+        <v>1.211162447929382</v>
       </c>
       <c r="CU2">
-        <v>1.226348519325256</v>
+        <v>-0.1484266370534897</v>
       </c>
       <c r="CV2">
-        <v>1.030491471290588</v>
+        <v>1.624805212020874</v>
       </c>
       <c r="CW2">
-        <v>0.1524105072021484</v>
+        <v>0.4705969095230103</v>
       </c>
       <c r="CX2">
-        <v>0.5133320689201355</v>
+        <v>0.4113869667053223</v>
       </c>
       <c r="CY2">
-        <v>6.598932266235352</v>
+        <v>5.973175525665283</v>
       </c>
       <c r="CZ2">
-        <v>1.572344779968262</v>
+        <v>1.26415753364563</v>
       </c>
       <c r="DA2">
-        <v>-12.49715709686279</v>
+        <v>-11.35991764068604</v>
       </c>
       <c r="DB2">
-        <v>-5.651218414306641</v>
+        <v>-5.178388118743896</v>
       </c>
       <c r="DC2">
-        <v>1.222370505332947</v>
+        <v>1.232770323753357</v>
       </c>
       <c r="DD2">
-        <v>-7.746026515960693</v>
+        <v>-8.737102508544922</v>
       </c>
       <c r="DE2">
-        <v>0.3131518363952637</v>
+        <v>0.7214766144752502</v>
       </c>
       <c r="DF2">
-        <v>4.534872531890869</v>
+        <v>3.923394441604614</v>
       </c>
       <c r="DG2">
-        <v>1.234673142433167</v>
+        <v>1.823461532592773</v>
       </c>
       <c r="DH2">
-        <v>14.79169940948486</v>
+        <v>15.4138069152832</v>
       </c>
       <c r="DI2">
-        <v>0.5001530051231384</v>
+        <v>0.3517090082168579</v>
       </c>
       <c r="DJ2">
-        <v>-1.208298802375793</v>
+        <v>-0.9751171469688416</v>
       </c>
       <c r="DK2">
-        <v>11.61350059509277</v>
+        <v>10.98543357849121</v>
       </c>
       <c r="DL2">
-        <v>1.478284597396851</v>
+        <v>2.622013092041016</v>
       </c>
       <c r="DM2">
-        <v>-16.81988143920898</v>
+        <v>-16.02761268615723</v>
       </c>
       <c r="DN2">
-        <v>-1.4623783826828</v>
+        <v>-0.8657987117767334</v>
       </c>
       <c r="DO2">
-        <v>9.568838119506836</v>
+        <v>9.674026489257812</v>
       </c>
       <c r="DP2">
-        <v>-3.258577823638916</v>
+        <v>-3.077058076858521</v>
       </c>
       <c r="DQ2">
-        <v>1.949369430541992</v>
+        <v>2.371458768844604</v>
       </c>
       <c r="DR2">
-        <v>-0.06620645523071289</v>
+        <v>0.7666602730751038</v>
       </c>
       <c r="DS2">
-        <v>-1.680599689483643</v>
+        <v>-1.7354336977005</v>
       </c>
       <c r="DT2">
-        <v>-17.91644096374512</v>
+        <v>-16.61670303344727</v>
       </c>
       <c r="DU2">
-        <v>-3.228403806686401</v>
+        <v>-3.518283605575562</v>
       </c>
       <c r="DV2">
-        <v>-0.6787425875663757</v>
+        <v>-0.3123112618923187</v>
       </c>
       <c r="DW2">
-        <v>0.2044677883386612</v>
+        <v>-0.99257892370224</v>
       </c>
       <c r="DX2">
-        <v>0.2619332671165466</v>
+        <v>0.7898800373077393</v>
       </c>
       <c r="DY2">
-        <v>1.016215562820435</v>
+        <v>1.433050751686096</v>
       </c>
       <c r="DZ2">
-        <v>1.04512631893158</v>
+        <v>2.60479736328125</v>
       </c>
       <c r="EA2">
-        <v>1.935471534729004</v>
+        <v>1.816073060035706</v>
       </c>
       <c r="EB2">
-        <v>-0.6989784836769104</v>
+        <v>-0.2287806123495102</v>
       </c>
       <c r="EC2">
-        <v>-1.220797300338745</v>
+        <v>-0.103263147175312</v>
       </c>
       <c r="ED2">
-        <v>0.1121491864323616</v>
+        <v>0.4594721496105194</v>
       </c>
       <c r="EE2">
-        <v>-1.338740468025208</v>
+        <v>-0.8892701268196106</v>
       </c>
       <c r="EF2">
-        <v>-3.7668137550354</v>
+        <v>-3.110378503799438</v>
       </c>
       <c r="EG2">
-        <v>-2.119489908218384</v>
+        <v>-2.033929347991943</v>
       </c>
       <c r="EH2">
-        <v>-6.40316915512085</v>
+        <v>-7.282866954803467</v>
       </c>
       <c r="EI2">
-        <v>-2.960060834884644</v>
+        <v>-1.70082676410675</v>
       </c>
       <c r="EJ2">
-        <v>-17.90618133544922</v>
+        <v>-17.89784049987793</v>
       </c>
       <c r="EK2">
-        <v>1.387023448944092</v>
+        <v>1.577589511871338</v>
       </c>
       <c r="EL2">
-        <v>1.038540601730347</v>
+        <v>1.536504864692688</v>
       </c>
       <c r="EM2">
-        <v>0.7071541547775269</v>
+        <v>0.6775320768356323</v>
       </c>
       <c r="EN2">
-        <v>-1.885568976402283</v>
+        <v>-1.054021954536438</v>
       </c>
       <c r="EO2">
-        <v>10.85488891601562</v>
+        <v>12.26391887664795</v>
       </c>
       <c r="EP2">
-        <v>-2.658942222595215</v>
+        <v>-2.59246563911438</v>
       </c>
       <c r="EQ2">
-        <v>2.408277273178101</v>
+        <v>1.793050408363342</v>
       </c>
       <c r="ER2">
-        <v>-0.4039482474327087</v>
+        <v>-1.329552292823792</v>
       </c>
       <c r="ES2">
-        <v>-3.950645208358765</v>
+        <v>-4.657471179962158</v>
       </c>
       <c r="ET2">
-        <v>-3.843709230422974</v>
+        <v>-3.291943788528442</v>
       </c>
       <c r="EU2">
-        <v>7.797565937042236</v>
+        <v>8.894401550292969</v>
       </c>
       <c r="EV2">
-        <v>-3.9421706199646</v>
+        <v>-2.787333011627197</v>
       </c>
       <c r="EW2">
-        <v>-4.973267078399658</v>
+        <v>-4.054248332977295</v>
       </c>
       <c r="EX2">
-        <v>-7.261614799499512</v>
+        <v>-6.063770294189453</v>
       </c>
       <c r="EY2">
-        <v>0.9244517087936401</v>
+        <v>1.518075585365295</v>
       </c>
       <c r="EZ2">
-        <v>-6.073674201965332</v>
+        <v>-5.9209885597229</v>
       </c>
       <c r="FA2">
-        <v>0.09413515776395798</v>
+        <v>-0.7605514526367188</v>
       </c>
       <c r="FB2">
-        <v>-1.323979496955872</v>
+        <v>-0.8990712761878967</v>
       </c>
       <c r="FC2">
-        <v>12.66773509979248</v>
+        <v>13.31295013427734</v>
       </c>
       <c r="FD2">
-        <v>-2.002679347991943</v>
+        <v>-2.066983222961426</v>
       </c>
       <c r="FE2">
-        <v>9.640786170959473</v>
+        <v>9.704267501831055</v>
       </c>
       <c r="FF2">
-        <v>-13.06383228302002</v>
+        <v>-12.9082088470459</v>
       </c>
       <c r="FG2">
-        <v>-17.31194877624512</v>
+        <v>-15.95873069763184</v>
       </c>
       <c r="FH2">
-        <v>-0.3522624373435974</v>
+        <v>-0.8561853766441345</v>
       </c>
       <c r="FI2">
-        <v>-3.135065793991089</v>
+        <v>-2.291375875473022</v>
       </c>
       <c r="FJ2">
-        <v>3.755399703979492</v>
+        <v>4.345101356506348</v>
       </c>
       <c r="FK2">
-        <v>7.325347900390625</v>
+        <v>6.353752613067627</v>
       </c>
       <c r="FL2">
-        <v>-7.53122615814209</v>
+        <v>-7.012215137481689</v>
       </c>
       <c r="FM2">
-        <v>8.304329872131348</v>
+        <v>7.710446834564209</v>
       </c>
       <c r="FN2">
-        <v>8.030684471130371</v>
+        <v>7.604129791259766</v>
       </c>
       <c r="FO2">
-        <v>-3.160547018051147</v>
+        <v>-2.696443796157837</v>
       </c>
       <c r="FP2">
-        <v>-2.349969148635864</v>
+        <v>-1.607434868812561</v>
       </c>
       <c r="FQ2">
-        <v>-0.190102756023407</v>
+        <v>0.3350673913955688</v>
       </c>
       <c r="FR2">
-        <v>-1.925822734832764</v>
+        <v>-1.451654076576233</v>
       </c>
       <c r="FS2">
-        <v>0.01283114589750767</v>
+        <v>0.3241845369338989</v>
       </c>
       <c r="FT2">
-        <v>-0.8656212091445923</v>
+        <v>-0.3463897109031677</v>
       </c>
       <c r="FU2">
-        <v>-0.3924932777881622</v>
+        <v>0.1027689427137375</v>
       </c>
       <c r="FV2">
-        <v>-0.8705077171325684</v>
+        <v>-0.3160407543182373</v>
       </c>
       <c r="FW2">
-        <v>4.951490879058838</v>
+        <v>5.328874111175537</v>
       </c>
       <c r="FX2">
-        <v>0.2783130407333374</v>
+        <v>1.303303956985474</v>
       </c>
       <c r="FY2">
-        <v>-0.1920858919620514</v>
+        <v>-1.322436571121216</v>
       </c>
       <c r="FZ2">
-        <v>0.8959397673606873</v>
+        <v>0.6169199347496033</v>
       </c>
       <c r="GA2">
-        <v>-10.84640693664551</v>
+        <v>-10.17369174957275</v>
       </c>
       <c r="GB2">
-        <v>2.088853120803833</v>
+        <v>1.685141205787659</v>
       </c>
       <c r="GC2">
-        <v>-8.458266258239746</v>
+        <v>-8.886791229248047</v>
       </c>
       <c r="GD2">
-        <v>-2.840245485305786</v>
+        <v>-2.215427875518799</v>
       </c>
       <c r="GE2">
-        <v>0.8992587327957153</v>
+        <v>1.434239387512207</v>
       </c>
       <c r="GF2">
-        <v>1.54844343662262</v>
+        <v>0.6861774325370789</v>
       </c>
       <c r="GG2">
-        <v>-3.806699514389038</v>
+        <v>-3.352979421615601</v>
       </c>
       <c r="GH2">
-        <v>0.7754490971565247</v>
+        <v>-0.5466107130050659</v>
       </c>
       <c r="GI2">
-        <v>3.969967603683472</v>
+        <v>4.759653568267822</v>
       </c>
       <c r="GJ2">
-        <v>-0.6595876216888428</v>
+        <v>-1.441482424736023</v>
       </c>
       <c r="GK2">
-        <v>3.149816036224365</v>
+        <v>4.474118232727051</v>
       </c>
       <c r="GL2">
-        <v>-15.51332092285156</v>
+        <v>-16.46507453918457</v>
       </c>
       <c r="GM2">
-        <v>-12.88363742828369</v>
+        <v>-12.22101306915283</v>
       </c>
       <c r="GN2">
-        <v>12.73674583435059</v>
+        <v>12.69324111938477</v>
       </c>
       <c r="GO2">
-        <v>-0.07085003703832626</v>
+        <v>0.5650206804275513</v>
       </c>
       <c r="GP2">
-        <v>0.5840792655944824</v>
+        <v>1.080730199813843</v>
       </c>
       <c r="GQ2">
-        <v>-1.030348539352417</v>
+        <v>-0.871981143951416</v>
       </c>
       <c r="GR2">
-        <v>-0.2527470886707306</v>
+        <v>-0.05082773044705391</v>
       </c>
       <c r="GS2">
-        <v>-4.27794075012207</v>
+        <v>-4.515607833862305</v>
       </c>
       <c r="GT2">
-        <v>-0.6412943005561829</v>
+        <v>-0.5706720948219299</v>
       </c>
       <c r="GU2">
-        <v>-2.916913986206055</v>
+        <v>-3.749178409576416</v>
       </c>
       <c r="GV2">
-        <v>-2.180629014968872</v>
+        <v>-0.9988588094711304</v>
       </c>
       <c r="GW2">
-        <v>8.390116691589355</v>
+        <v>9.123759269714355</v>
       </c>
       <c r="GX2">
-        <v>-1.164587497711182</v>
+        <v>-0.7188741564750671</v>
       </c>
       <c r="GY2">
-        <v>-0.8240347504615784</v>
+        <v>-0.396479457616806</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Infrastructure.xlsx
+++ b/static/Models/Classification/Equation/Infrastructure.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.984217643737793</v>
+        <v>7.271566867828369</v>
       </c>
       <c r="C2" t="n">
-        <v>2.423535108566284</v>
+        <v>2.873070478439331</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.615191459655762</v>
+        <v>-4.433279037475586</v>
       </c>
       <c r="E2" t="n">
-        <v>4.421903133392334</v>
+        <v>4.340853691101074</v>
       </c>
       <c r="F2" t="n">
-        <v>1.083462476730347</v>
+        <v>1.156970739364624</v>
       </c>
       <c r="G2" t="n">
-        <v>6.913271427154541</v>
+        <v>6.574317455291748</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.418945848941803</v>
+        <v>-0.6336557865142822</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8344600200653076</v>
+        <v>0.5751672387123108</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3188888132572174</v>
+        <v>0.2343412637710571</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.589428782463074</v>
+        <v>-1.964280486106873</v>
       </c>
       <c r="L2" t="n">
-        <v>1.002583861351013</v>
+        <v>1.026332259178162</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.7680074572563171</v>
+        <v>-0.4496601819992065</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.182855486869812</v>
+        <v>-0.8810394406318665</v>
       </c>
       <c r="O2" t="n">
-        <v>10.29163074493408</v>
+        <v>9.64387035369873</v>
       </c>
       <c r="P2" t="n">
-        <v>3.014999151229858</v>
+        <v>2.510329723358154</v>
       </c>
       <c r="Q2" t="n">
-        <v>-10.85110378265381</v>
+        <v>-10.28383445739746</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9945493340492249</v>
+        <v>1.492194652557373</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.4140080213546753</v>
+        <v>-0.6624162793159485</v>
       </c>
       <c r="T2" t="n">
-        <v>4.086279392242432</v>
+        <v>3.803077936172485</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.929970502853394</v>
+        <v>-3.204210042953491</v>
       </c>
       <c r="V2" t="n">
-        <v>1.548110723495483</v>
+        <v>1.017004251480103</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3913938701152802</v>
+        <v>0.8038021326065063</v>
       </c>
       <c r="X2" t="n">
-        <v>1.859296202659607</v>
+        <v>1.408792018890381</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.08112096786499</v>
+        <v>4.498814582824707</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.06180477142334</v>
+        <v>9.620720863342285</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.041719079017639</v>
+        <v>0.6024494171142578</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.4557952582836151</v>
+        <v>-0.7869415283203125</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.841431617736816</v>
+        <v>8.109372138977051</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2385270446538925</v>
+        <v>-0.009017870761454105</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.6400517821311951</v>
+        <v>-1.098159193992615</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.756705045700073</v>
+        <v>3.243088722229004</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3864193856716156</v>
+        <v>-0.7151320576667786</v>
       </c>
       <c r="AH2" t="n">
-        <v>-7.852016925811768</v>
+        <v>-7.604796409606934</v>
       </c>
       <c r="AI2" t="n">
-        <v>-6.071471214294434</v>
+        <v>-6.540685176849365</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.4108015894889832</v>
+        <v>0.2445871382951736</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.8878640532493591</v>
+        <v>-0.9074522256851196</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1431651413440704</v>
+        <v>0.2685149610042572</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.123226404190063</v>
+        <v>2.737688779830933</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.259846210479736</v>
+        <v>4.145667552947998</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.116292119026184</v>
+        <v>0.8465271592140198</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.08142053335905075</v>
+        <v>-0.3456486761569977</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6894556283950806</v>
+        <v>1.410189986228943</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.04472176358103752</v>
+        <v>-0.3082428574562073</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.3670548796653748</v>
+        <v>0.2417897582054138</v>
       </c>
       <c r="AT2" t="n">
-        <v>-3.343070030212402</v>
+        <v>-3.286073684692383</v>
       </c>
       <c r="AU2" t="n">
-        <v>-18.84819412231445</v>
+        <v>-18.50649070739746</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.8654347062110901</v>
+        <v>-1.011314988136292</v>
       </c>
       <c r="AW2" t="n">
-        <v>-3.932747364044189</v>
+        <v>-3.652313232421875</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.4450044333934784</v>
+        <v>-0.8612912893295288</v>
       </c>
       <c r="AY2" t="n">
-        <v>5.672140598297119</v>
+        <v>6.133872509002686</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.021086692810059</v>
+        <v>5.43565845489502</v>
       </c>
       <c r="BA2" t="n">
-        <v>8.127668380737305</v>
+        <v>8.305779457092285</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.409949898719788</v>
+        <v>1.576818227767944</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.182280033826828</v>
+        <v>0.8322411179542542</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.107811339199543</v>
+        <v>-0.3467047512531281</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.3657158315181732</v>
+        <v>0.6222319602966309</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.695028305053711</v>
+        <v>7.927938461303711</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.802772045135498</v>
+        <v>-2.088945388793945</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.4187338352203369</v>
+        <v>0.146306112408638</v>
       </c>
       <c r="BI2" t="n">
-        <v>9.005317687988281</v>
+        <v>8.71955394744873</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.1643641889095306</v>
+        <v>-0.8562420010566711</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.08116614818573</v>
+        <v>0.682264506816864</v>
       </c>
       <c r="BL2" t="n">
-        <v>9.005858421325684</v>
+        <v>9.255430221557617</v>
       </c>
       <c r="BM2" t="n">
-        <v>-4.720113277435303</v>
+        <v>-5.053999900817871</v>
       </c>
       <c r="BN2" t="n">
-        <v>-21.88763618469238</v>
+        <v>-21.51607894897461</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.721224844455719</v>
+        <v>1.091374635696411</v>
       </c>
       <c r="BP2" t="n">
-        <v>6.096316814422607</v>
+        <v>5.685028553009033</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.3065078854560852</v>
+        <v>-0.3003650605678558</v>
       </c>
       <c r="BR2" t="n">
-        <v>-2.691482067108154</v>
+        <v>-2.191765785217285</v>
       </c>
       <c r="BS2" t="n">
-        <v>-2.484556198120117</v>
+        <v>-2.017052888870239</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.730080604553223</v>
+        <v>2.228577613830566</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.1854903250932693</v>
+        <v>-0.4899621605873108</v>
       </c>
       <c r="BV2" t="n">
-        <v>-1.348363637924194</v>
+        <v>-1.633504033088684</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.9159729480743408</v>
+        <v>1.117398023605347</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.453004837036133</v>
+        <v>-1.601919770240784</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.483976006507874</v>
+        <v>-1.863527297973633</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.89098858833313</v>
+        <v>-1.997565507888794</v>
       </c>
       <c r="CA2" t="n">
-        <v>-3.041944026947021</v>
+        <v>-2.801946640014648</v>
       </c>
       <c r="CB2" t="n">
-        <v>-5.091678619384766</v>
+        <v>-5.254330635070801</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.8929764628410339</v>
+        <v>-1.133473753929138</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.2487664669752121</v>
+        <v>-0.1692589819431305</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.901266813278198</v>
+        <v>1.661821365356445</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.8575404286384583</v>
+        <v>-1.433328032493591</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.31550121307373</v>
+        <v>2.791894435882568</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.2346929162740707</v>
+        <v>-0.4698950946331024</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.606380820274353</v>
+        <v>-1.885834932327271</v>
       </c>
       <c r="CJ2" t="n">
-        <v>4.13792896270752</v>
+        <v>4.634264469146729</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.308331847190857</v>
+        <v>-1.695018887519836</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.1688309907913208</v>
+        <v>-0.0933692529797554</v>
       </c>
       <c r="CM2" t="n">
-        <v>7.190520286560059</v>
+        <v>6.945075035095215</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.556602716445923</v>
+        <v>1.96731698513031</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.6355019211769104</v>
+        <v>0.4088139832019806</v>
       </c>
       <c r="CP2" t="n">
-        <v>4.133718490600586</v>
+        <v>3.913859367370605</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.8614253401756287</v>
+        <v>0.4403617978096008</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.413571238517761</v>
+        <v>-1.837056159973145</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.1654818207025528</v>
+        <v>-0.4407047033309937</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.045570969581604</v>
+        <v>0.7970657348632812</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.6847072243690491</v>
+        <v>-1.088175773620605</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.990756988525391</v>
+        <v>1.506101369857788</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.7378687858581543</v>
+        <v>1.14289402961731</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.2319595962762833</v>
+        <v>0.7655098438262939</v>
       </c>
       <c r="CY2" t="n">
-        <v>6.142961025238037</v>
+        <v>6.335872173309326</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.38715648651123</v>
+        <v>1.350832939147949</v>
       </c>
       <c r="DA2" t="n">
-        <v>-10.95811462402344</v>
+        <v>-10.56508159637451</v>
       </c>
       <c r="DB2" t="n">
-        <v>-5.12053108215332</v>
+        <v>-5.597294330596924</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.7891148924827576</v>
+        <v>1.055459856987</v>
       </c>
       <c r="DD2" t="n">
-        <v>-8.958286285400391</v>
+        <v>-9.510600090026855</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.4946837425231934</v>
+        <v>0.186955913901329</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.248476028442383</v>
+        <v>4.457467555999756</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.246774673461914</v>
+        <v>0.929603099822998</v>
       </c>
       <c r="DH2" t="n">
-        <v>15.91355419158936</v>
+        <v>15.53171730041504</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.8546039462089539</v>
+        <v>0.2869118750095367</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.054486155509949</v>
+        <v>-0.6664534211158752</v>
       </c>
       <c r="DK2" t="n">
-        <v>10.78130149841309</v>
+        <v>11.18241500854492</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.395027160644531</v>
+        <v>2.965533018112183</v>
       </c>
       <c r="DM2" t="n">
-        <v>-15.78796005249023</v>
+        <v>-15.56201171875</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.033821702003479</v>
+        <v>-1.267782807350159</v>
       </c>
       <c r="DO2" t="n">
-        <v>9.831696510314941</v>
+        <v>9.246610641479492</v>
       </c>
       <c r="DP2" t="n">
-        <v>-2.71509838104248</v>
+        <v>-2.425990343093872</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.145403146743774</v>
+        <v>1.840290904045105</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.4611130654811859</v>
+        <v>-0.03679844364523888</v>
       </c>
       <c r="DS2" t="n">
-        <v>-1.361899614334106</v>
+        <v>-0.8745095729827881</v>
       </c>
       <c r="DT2" t="n">
-        <v>-16.18603706359863</v>
+        <v>-15.79695415496826</v>
       </c>
       <c r="DU2" t="n">
-        <v>-3.779217720031738</v>
+        <v>-3.246111869812012</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.05938402935862541</v>
+        <v>0.3044291436672211</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.243057370185852</v>
+        <v>-0.7864112257957458</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.6208750605583191</v>
+        <v>0.3700117766857147</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.213531255722046</v>
+        <v>1.851255893707275</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.689410448074341</v>
+        <v>3.106634855270386</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.654565453529358</v>
+        <v>2.13520336151123</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.4320130050182343</v>
+        <v>-0.7074556350708008</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.268364429473877</v>
+        <v>0.2643691301345825</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.2157829403877258</v>
+        <v>-0.07232940196990967</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.091292023658752</v>
+        <v>-1.396576166152954</v>
       </c>
       <c r="EF2" t="n">
-        <v>-2.560481548309326</v>
+        <v>-3.046220779418945</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.671103119850159</v>
+        <v>-2.013191938400269</v>
       </c>
       <c r="EH2" t="n">
-        <v>-7.545796871185303</v>
+        <v>-7.999383926391602</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.721052169799805</v>
+        <v>-1.820074677467346</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-18.18583106994629</v>
+        <v>-17.4517765045166</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.376905202865601</v>
+        <v>1.084965825080872</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.348800778388977</v>
+        <v>1.073637247085571</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.2329150885343552</v>
+        <v>0.09218400716781616</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.6120875477790833</v>
+        <v>-0.881803035736084</v>
       </c>
       <c r="EO2" t="n">
-        <v>12.03501415252686</v>
+        <v>12.50058650970459</v>
       </c>
       <c r="EP2" t="n">
-        <v>-2.154658079147339</v>
+        <v>-2.638143539428711</v>
       </c>
       <c r="EQ2" t="n">
-        <v>2.05675196647644</v>
+        <v>1.692168235778809</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.6938380599021912</v>
+        <v>-0.488873302936554</v>
       </c>
       <c r="ES2" t="n">
-        <v>-4.859115600585938</v>
+        <v>-4.875098705291748</v>
       </c>
       <c r="ET2" t="n">
-        <v>-3.054594278335571</v>
+        <v>-3.779326438903809</v>
       </c>
       <c r="EU2" t="n">
-        <v>9.255961418151855</v>
+        <v>9.652050971984863</v>
       </c>
       <c r="EV2" t="n">
-        <v>-2.462857246398926</v>
+        <v>-2.154236316680908</v>
       </c>
       <c r="EW2" t="n">
-        <v>-4.081748008728027</v>
+        <v>-3.907742977142334</v>
       </c>
       <c r="EX2" t="n">
-        <v>-5.764365673065186</v>
+        <v>-5.362235069274902</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.349698185920715</v>
+        <v>1.089702963829041</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-5.542285442352295</v>
+        <v>-5.95780086517334</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.8659654259681702</v>
+        <v>-1.225973010063171</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.120879888534546</v>
+        <v>-1.428297519683838</v>
       </c>
       <c r="FC2" t="n">
-        <v>13.80406761169434</v>
+        <v>13.21794509887695</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.912322402000427</v>
+        <v>-2.12653923034668</v>
       </c>
       <c r="FE2" t="n">
-        <v>10.04463005065918</v>
+        <v>10.55456256866455</v>
       </c>
       <c r="FF2" t="n">
-        <v>-12.66333675384521</v>
+        <v>-12.88804912567139</v>
       </c>
       <c r="FG2" t="n">
-        <v>-16.02911758422852</v>
+        <v>-16.24530792236328</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.4080473482608795</v>
+        <v>-0.772768497467041</v>
       </c>
       <c r="FI2" t="n">
-        <v>-2.049904823303223</v>
+        <v>-1.561577677726746</v>
       </c>
       <c r="FJ2" t="n">
-        <v>4.651058197021484</v>
+        <v>4.102676391601562</v>
       </c>
       <c r="FK2" t="n">
-        <v>5.965326309204102</v>
+        <v>6.24289083480835</v>
       </c>
       <c r="FL2" t="n">
-        <v>-7.265841484069824</v>
+        <v>-7.410857200622559</v>
       </c>
       <c r="FM2" t="n">
-        <v>7.393987655639648</v>
+        <v>7.288485527038574</v>
       </c>
       <c r="FN2" t="n">
-        <v>7.943890571594238</v>
+        <v>8.173627853393555</v>
       </c>
       <c r="FO2" t="n">
-        <v>-2.387289524078369</v>
+        <v>-2.804145812988281</v>
       </c>
       <c r="FP2" t="n">
-        <v>-1.350423097610474</v>
+        <v>-1.366803288459778</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.168595939874649</v>
+        <v>-0.07874641567468643</v>
       </c>
       <c r="FR2" t="n">
-        <v>-1.669821381568909</v>
+        <v>-1.979369163513184</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.1543180197477341</v>
+        <v>-0.1104668974876404</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.5219491720199585</v>
+        <v>-0.7905517816543579</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.1148137301206589</v>
+        <v>-0.3942993879318237</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.5641937851905823</v>
+        <v>-0.9070450663566589</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.0776686668396</v>
+        <v>4.772622108459473</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.483608245849609</v>
+        <v>1.001890301704407</v>
       </c>
       <c r="FY2" t="n">
-        <v>-1.037050724029541</v>
+        <v>-1.263087034225464</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.07986316084861755</v>
+        <v>-0.6861530542373657</v>
       </c>
       <c r="GA2" t="n">
-        <v>-9.888428688049316</v>
+        <v>-10.17802429199219</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.481307029724121</v>
+        <v>1.857782125473022</v>
       </c>
       <c r="GC2" t="n">
-        <v>-8.248639106750488</v>
+        <v>-8.469442367553711</v>
       </c>
       <c r="GD2" t="n">
-        <v>-2.215454816818237</v>
+        <v>-2.618468761444092</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.240124940872192</v>
+        <v>0.972615659236908</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.443097859621048</v>
+        <v>-0.1075436174869537</v>
       </c>
       <c r="GG2" t="n">
-        <v>-3.63591742515564</v>
+        <v>-4.067803382873535</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.8399816751480103</v>
+        <v>-0.3530116677284241</v>
       </c>
       <c r="GI2" t="n">
-        <v>4.922354698181152</v>
+        <v>4.485036373138428</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-1.920691013336182</v>
+        <v>-1.373279809951782</v>
       </c>
       <c r="GK2" t="n">
-        <v>4.832962036132812</v>
+        <v>4.616364002227783</v>
       </c>
       <c r="GL2" t="n">
-        <v>-16.84199142456055</v>
+        <v>-16.88501930236816</v>
       </c>
       <c r="GM2" t="n">
-        <v>-12.46910190582275</v>
+        <v>-11.79118156433105</v>
       </c>
       <c r="GN2" t="n">
-        <v>12.41807270050049</v>
+        <v>12.14539527893066</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.9953023791313171</v>
+        <v>1.058354020118713</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.9386535882949829</v>
+        <v>0.7018599510192871</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-1.248618245124817</v>
+        <v>-0.8818493485450745</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.0725543349981308</v>
+        <v>-0.6043310165405273</v>
       </c>
       <c r="GS2" t="n">
-        <v>-4.430305004119873</v>
+        <v>-4.805253982543945</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.812854528427124</v>
+        <v>-1.291100144386292</v>
       </c>
       <c r="GU2" t="n">
-        <v>-3.608805179595947</v>
+        <v>-3.326562404632568</v>
       </c>
       <c r="GV2" t="n">
-        <v>-1.610860347747803</v>
+        <v>-1.599264740943909</v>
       </c>
       <c r="GW2" t="n">
-        <v>8.992875099182129</v>
+        <v>8.52854061126709</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.9214659333229065</v>
+        <v>-1.121410727500916</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.6031696200370789</v>
+        <v>-0.8785598278045654</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Infrastructure.xlsx
+++ b/static/Models/Classification/Equation/Infrastructure.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.271566867828369</v>
+        <v>7.07063102722168</v>
       </c>
       <c r="C2" t="n">
-        <v>2.873070478439331</v>
+        <v>2.105944395065308</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.433279037475586</v>
+        <v>-3.855669021606445</v>
       </c>
       <c r="E2" t="n">
-        <v>4.340853691101074</v>
+        <v>3.762715339660645</v>
       </c>
       <c r="F2" t="n">
-        <v>1.156970739364624</v>
+        <v>0.584576427936554</v>
       </c>
       <c r="G2" t="n">
-        <v>6.574317455291748</v>
+        <v>5.692956924438477</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6336557865142822</v>
+        <v>-0.3436386585235596</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5751672387123108</v>
+        <v>0.8489537239074707</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2343412637710571</v>
+        <v>0.7914659976959229</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.964280486106873</v>
+        <v>-1.395792245864868</v>
       </c>
       <c r="L2" t="n">
-        <v>1.026332259178162</v>
+        <v>1.715456604957581</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4496601819992065</v>
+        <v>-0.8924751877784729</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8810394406318665</v>
+        <v>-1.542251110076904</v>
       </c>
       <c r="O2" t="n">
-        <v>9.64387035369873</v>
+        <v>9.796024322509766</v>
       </c>
       <c r="P2" t="n">
-        <v>2.510329723358154</v>
+        <v>2.649500846862793</v>
       </c>
       <c r="Q2" t="n">
-        <v>-10.28383445739746</v>
+        <v>-11.03763008117676</v>
       </c>
       <c r="R2" t="n">
-        <v>1.492194652557373</v>
+        <v>2.099289178848267</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.6624162793159485</v>
+        <v>-0.1952174305915833</v>
       </c>
       <c r="T2" t="n">
-        <v>3.803077936172485</v>
+        <v>4.089354515075684</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.204210042953491</v>
+        <v>-3.461662292480469</v>
       </c>
       <c r="V2" t="n">
-        <v>1.017004251480103</v>
+        <v>0.2299569398164749</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8038021326065063</v>
+        <v>0.9475899934768677</v>
       </c>
       <c r="X2" t="n">
-        <v>1.408792018890381</v>
+        <v>0.8261278867721558</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.498814582824707</v>
+        <v>3.612848997116089</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.620720863342285</v>
+        <v>10.08737087249756</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6024494171142578</v>
+        <v>1.118563771247864</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7869415283203125</v>
+        <v>-1.075342774391174</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.109372138977051</v>
+        <v>8.299342155456543</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.009017870761454105</v>
+        <v>0.226457267999649</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.098159193992615</v>
+        <v>-0.62870854139328</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243088722229004</v>
+        <v>2.616424798965454</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.7151320576667786</v>
+        <v>-0.390205591917038</v>
       </c>
       <c r="AH2" t="n">
-        <v>-7.604796409606934</v>
+        <v>-7.900032043457031</v>
       </c>
       <c r="AI2" t="n">
-        <v>-6.540685176849365</v>
+        <v>-7.332726001739502</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.2445871382951736</v>
+        <v>0.3582854866981506</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.9074522256851196</v>
+        <v>-0.5072053670883179</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.2685149610042572</v>
+        <v>-0.5723429322242737</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.737688779830933</v>
+        <v>2.671213865280151</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.145667552947998</v>
+        <v>4.781029224395752</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.8465271592140198</v>
+        <v>1.510507106781006</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.3456486761569977</v>
+        <v>0.2644674777984619</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.410189986228943</v>
+        <v>0.917896032333374</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.3082428574562073</v>
+        <v>-1.391108989715576</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2417897582054138</v>
+        <v>0.5139383673667908</v>
       </c>
       <c r="AT2" t="n">
-        <v>-3.286073684692383</v>
+        <v>-2.451127290725708</v>
       </c>
       <c r="AU2" t="n">
-        <v>-18.50649070739746</v>
+        <v>-19.35765838623047</v>
       </c>
       <c r="AV2" t="n">
-        <v>-1.011314988136292</v>
+        <v>-0.4614883065223694</v>
       </c>
       <c r="AW2" t="n">
-        <v>-3.652313232421875</v>
+        <v>-4.048022270202637</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.8612912893295288</v>
+        <v>-0.6348152160644531</v>
       </c>
       <c r="AY2" t="n">
-        <v>6.133872509002686</v>
+        <v>6.784351825714111</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.43565845489502</v>
+        <v>4.623420715332031</v>
       </c>
       <c r="BA2" t="n">
-        <v>8.305779457092285</v>
+        <v>9.060676574707031</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.576818227767944</v>
+        <v>0.6176820397377014</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.8322411179542542</v>
+        <v>1.608686208724976</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.3467047512531281</v>
+        <v>-0.08142884075641632</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.6222319602966309</v>
+        <v>0.08111685514450073</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.927938461303711</v>
+        <v>6.822440147399902</v>
       </c>
       <c r="BG2" t="n">
-        <v>-2.088945388793945</v>
+        <v>-1.782246351242065</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.146306112408638</v>
+        <v>-0.1178039684891701</v>
       </c>
       <c r="BI2" t="n">
-        <v>8.71955394744873</v>
+        <v>9.095160484313965</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.8562420010566711</v>
+        <v>-0.3930042684078217</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.682264506816864</v>
+        <v>0.5044759511947632</v>
       </c>
       <c r="BL2" t="n">
-        <v>9.255430221557617</v>
+        <v>9.02590274810791</v>
       </c>
       <c r="BM2" t="n">
-        <v>-5.053999900817871</v>
+        <v>-4.616158008575439</v>
       </c>
       <c r="BN2" t="n">
-        <v>-21.51607894897461</v>
+        <v>-20.92953491210938</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.091374635696411</v>
+        <v>1.1534024477005</v>
       </c>
       <c r="BP2" t="n">
-        <v>5.685028553009033</v>
+        <v>6.254879474639893</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.3003650605678558</v>
+        <v>0.257311999797821</v>
       </c>
       <c r="BR2" t="n">
-        <v>-2.191765785217285</v>
+        <v>-2.808530807495117</v>
       </c>
       <c r="BS2" t="n">
-        <v>-2.017052888870239</v>
+        <v>-1.258459568023682</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.228577613830566</v>
+        <v>2.667338609695435</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.4899621605873108</v>
+        <v>-0.1187520027160645</v>
       </c>
       <c r="BV2" t="n">
-        <v>-1.633504033088684</v>
+        <v>-2.167706727981567</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.117398023605347</v>
+        <v>1.960862994194031</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.601919770240784</v>
+        <v>-1.703764677047729</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.863527297973633</v>
+        <v>-1.857970356941223</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.997565507888794</v>
+        <v>-1.071312785148621</v>
       </c>
       <c r="CA2" t="n">
-        <v>-2.801946640014648</v>
+        <v>-3.276160955429077</v>
       </c>
       <c r="CB2" t="n">
-        <v>-5.254330635070801</v>
+        <v>-4.82363224029541</v>
       </c>
       <c r="CC2" t="n">
-        <v>-1.133473753929138</v>
+        <v>-0.6905335783958435</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.1692589819431305</v>
+        <v>0.2109758853912354</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.661821365356445</v>
+        <v>2.263999938964844</v>
       </c>
       <c r="CF2" t="n">
-        <v>-1.433328032493591</v>
+        <v>-1.687550663948059</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.791894435882568</v>
+        <v>2.565640211105347</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.4698950946331024</v>
+        <v>-1.140747666358948</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.885834932327271</v>
+        <v>-1.574255347251892</v>
       </c>
       <c r="CJ2" t="n">
-        <v>4.634264469146729</v>
+        <v>4.163046360015869</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.695018887519836</v>
+        <v>-1.247199773788452</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0933692529797554</v>
+        <v>0.1058874949812889</v>
       </c>
       <c r="CM2" t="n">
-        <v>6.945075035095215</v>
+        <v>7.76227331161499</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.96731698513031</v>
+        <v>1.170133709907532</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.4088139832019806</v>
+        <v>0.6715503931045532</v>
       </c>
       <c r="CP2" t="n">
-        <v>3.913859367370605</v>
+        <v>4.079872131347656</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.4403617978096008</v>
+        <v>0.4299724102020264</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.837056159973145</v>
+        <v>-0.8800822496414185</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.4407047033309937</v>
+        <v>-0.09547427296638489</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.7970657348632812</v>
+        <v>1.287259101867676</v>
       </c>
       <c r="CU2" t="n">
-        <v>-1.088175773620605</v>
+        <v>-0.7710261940956116</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.506101369857788</v>
+        <v>1.001383900642395</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.14289402961731</v>
+        <v>1.638753175735474</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.7655098438262939</v>
+        <v>1.450785994529724</v>
       </c>
       <c r="CY2" t="n">
-        <v>6.335872173309326</v>
+        <v>5.806926250457764</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.350832939147949</v>
+        <v>2.068140268325806</v>
       </c>
       <c r="DA2" t="n">
-        <v>-10.56508159637451</v>
+        <v>-10.73708724975586</v>
       </c>
       <c r="DB2" t="n">
-        <v>-5.597294330596924</v>
+        <v>-5.011996269226074</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.055459856987</v>
+        <v>1.586003422737122</v>
       </c>
       <c r="DD2" t="n">
-        <v>-9.510600090026855</v>
+        <v>-9.773591995239258</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.186955913901329</v>
+        <v>0.5313366651535034</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.457467555999756</v>
+        <v>4.178134441375732</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.929603099822998</v>
+        <v>0.2431868761777878</v>
       </c>
       <c r="DH2" t="n">
-        <v>15.53171730041504</v>
+        <v>15.79868316650391</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.2869118750095367</v>
+        <v>0.8368059396743774</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.6664534211158752</v>
+        <v>-0.1008860021829605</v>
       </c>
       <c r="DK2" t="n">
-        <v>11.18241500854492</v>
+        <v>11.48507785797119</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.965533018112183</v>
+        <v>2.507384300231934</v>
       </c>
       <c r="DM2" t="n">
-        <v>-15.56201171875</v>
+        <v>-14.87710571289062</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.267782807350159</v>
+        <v>-0.9840675592422485</v>
       </c>
       <c r="DO2" t="n">
-        <v>9.246610641479492</v>
+        <v>9.62992000579834</v>
       </c>
       <c r="DP2" t="n">
-        <v>-2.425990343093872</v>
+        <v>-2.581341743469238</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.840290904045105</v>
+        <v>2.157994270324707</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.03679844364523888</v>
+        <v>-0.331513524055481</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.8745095729827881</v>
+        <v>-1.290373682975769</v>
       </c>
       <c r="DT2" t="n">
-        <v>-15.79695415496826</v>
+        <v>-15.71394157409668</v>
       </c>
       <c r="DU2" t="n">
-        <v>-3.246111869812012</v>
+        <v>-3.110610961914062</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.3044291436672211</v>
+        <v>1.129747986793518</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.7864112257957458</v>
+        <v>0.07281486690044403</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.3700117766857147</v>
+        <v>0.6904977560043335</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.851255893707275</v>
+        <v>1.396070122718811</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3.106634855270386</v>
+        <v>3.904042482376099</v>
       </c>
       <c r="EA2" t="n">
-        <v>2.13520336151123</v>
+        <v>1.440189242362976</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.7074556350708008</v>
+        <v>-0.3870191872119904</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.2643691301345825</v>
+        <v>0.2976477444171906</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.07232940196990967</v>
+        <v>0.2092650979757309</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.396576166152954</v>
+        <v>-0.9896780252456665</v>
       </c>
       <c r="EF2" t="n">
-        <v>-3.046220779418945</v>
+        <v>-2.640411376953125</v>
       </c>
       <c r="EG2" t="n">
-        <v>-2.013191938400269</v>
+        <v>-2.742222309112549</v>
       </c>
       <c r="EH2" t="n">
-        <v>-7.999383926391602</v>
+        <v>-8.353346824645996</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.820074677467346</v>
+        <v>-0.8244551420211792</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-17.4517765045166</v>
+        <v>-17.49971389770508</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.084965825080872</v>
+        <v>1.127377986907959</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.073637247085571</v>
+        <v>1.152417421340942</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.09218400716781616</v>
+        <v>-0.3366546332836151</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.881803035736084</v>
+        <v>-0.2206200957298279</v>
       </c>
       <c r="EO2" t="n">
-        <v>12.50058650970459</v>
+        <v>12.36111354827881</v>
       </c>
       <c r="EP2" t="n">
-        <v>-2.638143539428711</v>
+        <v>-2.300080060958862</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.692168235778809</v>
+        <v>2.181157112121582</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.488873302936554</v>
+        <v>-0.9267698526382446</v>
       </c>
       <c r="ES2" t="n">
-        <v>-4.875098705291748</v>
+        <v>-5.168079376220703</v>
       </c>
       <c r="ET2" t="n">
-        <v>-3.779326438903809</v>
+        <v>-3.758888006210327</v>
       </c>
       <c r="EU2" t="n">
-        <v>9.652050971984863</v>
+        <v>9.261656761169434</v>
       </c>
       <c r="EV2" t="n">
-        <v>-2.154236316680908</v>
+        <v>-1.544876217842102</v>
       </c>
       <c r="EW2" t="n">
-        <v>-3.907742977142334</v>
+        <v>-3.031457424163818</v>
       </c>
       <c r="EX2" t="n">
-        <v>-5.362235069274902</v>
+        <v>-5.206020355224609</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.089702963829041</v>
+        <v>1.40256929397583</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-5.95780086517334</v>
+        <v>-5.060658931732178</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.225973010063171</v>
+        <v>-1.770594716072083</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.428297519683838</v>
+        <v>-1.12943422794342</v>
       </c>
       <c r="FC2" t="n">
-        <v>13.21794509887695</v>
+        <v>13.37529277801514</v>
       </c>
       <c r="FD2" t="n">
-        <v>-2.12653923034668</v>
+        <v>-1.431129693984985</v>
       </c>
       <c r="FE2" t="n">
-        <v>10.55456256866455</v>
+        <v>10.15326309204102</v>
       </c>
       <c r="FF2" t="n">
-        <v>-12.88804912567139</v>
+        <v>-12.30371475219727</v>
       </c>
       <c r="FG2" t="n">
-        <v>-16.24530792236328</v>
+        <v>-15.56192111968994</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.772768497467041</v>
+        <v>-0.6643623113632202</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.561577677726746</v>
+        <v>-1.105715155601501</v>
       </c>
       <c r="FJ2" t="n">
-        <v>4.102676391601562</v>
+        <v>4.557884693145752</v>
       </c>
       <c r="FK2" t="n">
-        <v>6.24289083480835</v>
+        <v>5.283126354217529</v>
       </c>
       <c r="FL2" t="n">
-        <v>-7.410857200622559</v>
+        <v>-7.550869464874268</v>
       </c>
       <c r="FM2" t="n">
-        <v>7.288485527038574</v>
+        <v>6.671258449554443</v>
       </c>
       <c r="FN2" t="n">
-        <v>8.173627853393555</v>
+        <v>7.895724296569824</v>
       </c>
       <c r="FO2" t="n">
-        <v>-2.804145812988281</v>
+        <v>-1.971322178840637</v>
       </c>
       <c r="FP2" t="n">
-        <v>-1.366803288459778</v>
+        <v>-1.05556321144104</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.07874641567468643</v>
+        <v>0.04754974320530891</v>
       </c>
       <c r="FR2" t="n">
-        <v>-1.979369163513184</v>
+        <v>-1.66534161567688</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.1104668974876404</v>
+        <v>0.4074150621891022</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.7905517816543579</v>
+        <v>-0.482344388961792</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.3942993879318237</v>
+        <v>-0.02407393231987953</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.9070450663566589</v>
+        <v>-0.5015093088150024</v>
       </c>
       <c r="FW2" t="n">
-        <v>4.772622108459473</v>
+        <v>5.119691371917725</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.001890301704407</v>
+        <v>0.9728240966796875</v>
       </c>
       <c r="FY2" t="n">
-        <v>-1.263087034225464</v>
+        <v>-0.9613279104232788</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.6861530542373657</v>
+        <v>-0.1634501963853836</v>
       </c>
       <c r="GA2" t="n">
-        <v>-10.17802429199219</v>
+        <v>-9.748139381408691</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.857782125473022</v>
+        <v>1.106624722480774</v>
       </c>
       <c r="GC2" t="n">
-        <v>-8.469442367553711</v>
+        <v>-7.732889175415039</v>
       </c>
       <c r="GD2" t="n">
-        <v>-2.618468761444092</v>
+        <v>-1.988005876541138</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.972615659236908</v>
+        <v>1.15394127368927</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.1075436174869537</v>
+        <v>-0.3158793151378632</v>
       </c>
       <c r="GG2" t="n">
-        <v>-4.067803382873535</v>
+        <v>-4.499654293060303</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.3530116677284241</v>
+        <v>0.03176358342170715</v>
       </c>
       <c r="GI2" t="n">
-        <v>4.485036373138428</v>
+        <v>4.950099468231201</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-1.373279809951782</v>
+        <v>-1.387229084968567</v>
       </c>
       <c r="GK2" t="n">
-        <v>4.616364002227783</v>
+        <v>4.564846992492676</v>
       </c>
       <c r="GL2" t="n">
-        <v>-16.88501930236816</v>
+        <v>-17.4507942199707</v>
       </c>
       <c r="GM2" t="n">
-        <v>-11.79118156433105</v>
+        <v>-12.17112445831299</v>
       </c>
       <c r="GN2" t="n">
-        <v>12.14539527893066</v>
+        <v>11.38494777679443</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.058354020118713</v>
+        <v>-0.1515296995639801</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.7018599510192871</v>
+        <v>1.093722224235535</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.8818493485450745</v>
+        <v>-0.3172184526920319</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.6043310165405273</v>
+        <v>-0.7822443842887878</v>
       </c>
       <c r="GS2" t="n">
-        <v>-4.805253982543945</v>
+        <v>-4.316864490509033</v>
       </c>
       <c r="GT2" t="n">
-        <v>-1.291100144386292</v>
+        <v>-0.363934725522995</v>
       </c>
       <c r="GU2" t="n">
-        <v>-3.326562404632568</v>
+        <v>-3.752325057983398</v>
       </c>
       <c r="GV2" t="n">
-        <v>-1.599264740943909</v>
+        <v>-1.469478964805603</v>
       </c>
       <c r="GW2" t="n">
-        <v>8.52854061126709</v>
+        <v>9.018826484680176</v>
       </c>
       <c r="GX2" t="n">
-        <v>-1.121410727500916</v>
+        <v>-0.8231493830680847</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.8785598278045654</v>
+        <v>-0.6051891446113586</v>
       </c>
     </row>
   </sheetData>
